--- a/Jmol/src/org/jmol/minimize/forcefield/mmff/docs/MMFF94-smarts.xlsx
+++ b/Jmol/src/org/jmol/minimize/forcefield/mmff/docs/MMFF94-smarts.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="210" windowWidth="14355" windowHeight="7620"/>
@@ -15,17 +15,17 @@
     <sheet name="Sheet4" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$J$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">main!$A$1:$J$236</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="814">
   <si>
     <t>*</t>
   </si>
@@ -2379,9 +2379,6 @@
     <t>$([OD1][PD4]([OD1,SD1])([!$([OD1,SD1])])[!$([OD1,SD1])])</t>
   </si>
   <si>
-    <t>[$([nD3v3][#6D3]([#7D3v3&amp;!r600&amp;!$([#7][OD1])])=[#7D3v4&amp;!r600&amp;!$([#7][OD1])]),$([nD3v4]=[#6D3]([#7D3v3&amp;!r600&amp;!$([#7][OD1])])[#7D3v3&amp;!r600&amp;!$([#7][OD1])])]</t>
-  </si>
-  <si>
     <t>checkmm.spt reading mmff-validation.dat...</t>
   </si>
   <si>
@@ -2464,6 +2461,12 @@
   </si>
   <si>
     <t>RO- or HO-</t>
+  </si>
+  <si>
+    <t>$([nD3v4]=[#6D3]([#7D3v3&amp;!r600])[#7D3v3&amp;!r600&amp;!$([#7][OD1])])</t>
+  </si>
+  <si>
+    <t>$([nD3v3][#6D3]([#7D3v3&amp;!r600])=[#7D3v4&amp;!r600&amp;!$([#7][OD1])])</t>
   </si>
 </sst>
 </file>
@@ -2566,7 +2569,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Bob Hanson" refreshedDate="41026.257216319442" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="183">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:B235" sheet="main"/>
+    <worksheetSource ref="B1:B236" sheet="main"/>
   </cacheSource>
   <cacheFields count="1">
     <cacheField name="Atom" numFmtId="0">
@@ -3155,7 +3158,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
@@ -3543,20 +3546,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M258"/>
+  <dimension ref="A1:M259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I165" sqref="I165"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.140625" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="5"/>
     <col min="9" max="9" width="35.5703125" customWidth="1"/>
@@ -3582,13 +3585,13 @@
         <v>377</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>357</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>358</v>
@@ -3597,7 +3600,7 @@
         <v>89</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>374</v>
@@ -4985,7 +4988,7 @@
         <v>191</v>
       </c>
       <c r="K38" s="7" t="str">
-        <f t="shared" ref="K38:K101" si="0">IF(LEN(I38)&lt;2,"",LEFT(B38&amp;"  ",2)&amp;RIGHT("   "&amp;C38,3)&amp;RIGHT("   "&amp;G38,3)&amp;RIGHT("   "&amp;H38,3)&amp;RIGHT("    "&amp;F38,4)&amp;" "&amp;LEFT(J38&amp;"                            ",25)&amp;" " &amp;I38)</f>
+        <f>IF(LEN(I38)&lt;2,"",LEFT(B38&amp;"  ",2)&amp;RIGHT("   "&amp;C38,3)&amp;RIGHT("   "&amp;G38,3)&amp;RIGHT("   "&amp;H38,3)&amp;RIGHT("    "&amp;F38,4)&amp;" "&amp;LEFT(J38&amp;"                            ",25)&amp;" " &amp;I38)</f>
         <v>C   6 22  5   0 C IN CYCLOPROPLY          [CD4r3]</v>
       </c>
       <c r="L38">
@@ -5026,7 +5029,7 @@
         <v>187</v>
       </c>
       <c r="K39" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I39)&lt;2,"",LEFT(B39&amp;"  ",2)&amp;RIGHT("   "&amp;C39,3)&amp;RIGHT("   "&amp;G39,3)&amp;RIGHT("   "&amp;H39,3)&amp;RIGHT("    "&amp;F39,4)&amp;" "&amp;LEFT(J39&amp;"                            ",25)&amp;" " &amp;I39)</f>
         <v>C   6 20  5   0 C IN CYCLOBUTYL           [CD4r4]</v>
       </c>
       <c r="L39">
@@ -5067,7 +5070,7 @@
         <v>91</v>
       </c>
       <c r="K40" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I40)&lt;2,"",LEFT(B40&amp;"  ",2)&amp;RIGHT("   "&amp;C40,3)&amp;RIGHT("   "&amp;G40,3)&amp;RIGHT("   "&amp;H40,3)&amp;RIGHT("    "&amp;F40,4)&amp;" "&amp;LEFT(J40&amp;"                            ",25)&amp;" " &amp;I40)</f>
         <v>C   6  1  5   0 ALKYL CARBON              [CD4]</v>
       </c>
       <c r="L40">
@@ -5108,7 +5111,7 @@
         <v>231</v>
       </c>
       <c r="K41" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I41)&lt;2,"",LEFT(B41&amp;"  ",2)&amp;RIGHT("   "&amp;C41,3)&amp;RIGHT("   "&amp;G41,3)&amp;RIGHT("   "&amp;H41,3)&amp;RIGHT("    "&amp;F41,4)&amp;" "&amp;LEFT(J41&amp;"                            ",25)&amp;" " &amp;I41)</f>
         <v>C   6 30  5   0 C=C IN 4-RING             $([CD3r4]=C)</v>
       </c>
       <c r="L41">
@@ -5149,7 +5152,7 @@
         <v>93</v>
       </c>
       <c r="K42" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I42)&lt;2,"",LEFT(B42&amp;"  ",2)&amp;RIGHT("   "&amp;C42,3)&amp;RIGHT("   "&amp;G42,3)&amp;RIGHT("   "&amp;H42,3)&amp;RIGHT("    "&amp;F42,4)&amp;" "&amp;LEFT(J42&amp;"                            ",25)&amp;" " &amp;I42)</f>
         <v>C   6  2  5   0 VINYLIC                   $([CD3]=C)</v>
       </c>
       <c r="L42">
@@ -5190,7 +5193,7 @@
         <v>278</v>
       </c>
       <c r="K43" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I43)&lt;2,"",LEFT(B43&amp;"  ",2)&amp;RIGHT("   "&amp;C43,3)&amp;RIGHT("   "&amp;G43,3)&amp;RIGHT("   "&amp;H43,3)&amp;RIGHT("    "&amp;F43,4)&amp;" "&amp;LEFT(J43&amp;"                            ",25)&amp;" " &amp;I43)</f>
         <v>C   6 41  5   0 C IN CO2- ANION           [$([CD3]([OD1])[OD1]), $([CD3]([SD1])[SD1])]</v>
       </c>
       <c r="L43">
@@ -5231,7 +5234,7 @@
         <v>280</v>
       </c>
       <c r="K44" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I44)&lt;2,"",LEFT(B44&amp;"  ",2)&amp;RIGHT("   "&amp;C44,3)&amp;RIGHT("   "&amp;G44,3)&amp;RIGHT("   "&amp;H44,3)&amp;RIGHT("    "&amp;F44,4)&amp;" "&amp;LEFT(J44&amp;"                            ",25)&amp;" " &amp;I44)</f>
         <v/>
       </c>
       <c r="L44">
@@ -5272,7 +5275,7 @@
         <v>302</v>
       </c>
       <c r="K45" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I45)&lt;2,"",LEFT(B45&amp;"  ",2)&amp;RIGHT("   "&amp;C45,3)&amp;RIGHT("   "&amp;G45,3)&amp;RIGHT("   "&amp;H45,3)&amp;RIGHT("    "&amp;F45,4)&amp;" "&amp;LEFT(J45&amp;"                            ",25)&amp;" " &amp;I45)</f>
         <v>C   6 57  5   0 GUANIDINIUM CARBON        $([CD3]([#7D3v3])([#7D3v3])=[#7D3v4&amp;!r600&amp;!$([#7][OD1])])</v>
       </c>
       <c r="L45">
@@ -5313,7 +5316,7 @@
         <v>303</v>
       </c>
       <c r="K46" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I46)&lt;2,"",LEFT(B46&amp;"  ",2)&amp;RIGHT("   "&amp;C46,3)&amp;RIGHT("   "&amp;G46,3)&amp;RIGHT("   "&amp;H46,3)&amp;RIGHT("    "&amp;F46,4)&amp;" "&amp;LEFT(J46&amp;"                            ",25)&amp;" " &amp;I46)</f>
         <v>C   6 57  5   0 C IN +N=C-N RESONANCE     $([CD3]([#7D3v3])=[#7D3v4&amp;!r600&amp;!$([#7][OD1])])</v>
       </c>
       <c r="L46">
@@ -5354,7 +5357,7 @@
         <v>95</v>
       </c>
       <c r="K47" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I47)&lt;2,"",LEFT(B47&amp;"  ",2)&amp;RIGHT("   "&amp;C47,3)&amp;RIGHT("   "&amp;G47,3)&amp;RIGHT("   "&amp;H47,3)&amp;RIGHT("    "&amp;F47,4)&amp;" "&amp;LEFT(J47&amp;"                            ",25)&amp;" " &amp;I47)</f>
         <v>C   6  3  5   0 GUANIDINE CARBON          $([CD3](=[#7D3v3])([#7D3v3])[#7D2v3])</v>
       </c>
       <c r="L47">
@@ -5398,7 +5401,7 @@
         <v>97</v>
       </c>
       <c r="K48" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I48)&lt;2,"",LEFT(B48&amp;"  ",2)&amp;RIGHT("   "&amp;C48,3)&amp;RIGHT("   "&amp;G48,3)&amp;RIGHT("   "&amp;H48,3)&amp;RIGHT("    "&amp;F48,4)&amp;" "&amp;LEFT(J48&amp;"                            ",25)&amp;" " &amp;I48)</f>
         <v>C   6  3  5   0 GENERAL CARBONYL C        $([CD3]=[O,N,P,S])</v>
       </c>
       <c r="L48">
@@ -5439,7 +5442,7 @@
         <v>98</v>
       </c>
       <c r="K49" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I49)&lt;2,"",LEFT(B49&amp;"  ",2)&amp;RIGHT("   "&amp;C49,3)&amp;RIGHT("   "&amp;G49,3)&amp;RIGHT("   "&amp;H49,3)&amp;RIGHT("    "&amp;F49,4)&amp;" "&amp;LEFT(J49&amp;"                            ",25)&amp;" " &amp;I49)</f>
         <v/>
       </c>
       <c r="L49">
@@ -5480,7 +5483,7 @@
         <v>100</v>
       </c>
       <c r="K50" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I50)&lt;2,"",LEFT(B50&amp;"  ",2)&amp;RIGHT("   "&amp;C50,3)&amp;RIGHT("   "&amp;G50,3)&amp;RIGHT("   "&amp;H50,3)&amp;RIGHT("    "&amp;F50,4)&amp;" "&amp;LEFT(J50&amp;"                            ",25)&amp;" " &amp;I50)</f>
         <v/>
       </c>
       <c r="L50">
@@ -5521,7 +5524,7 @@
         <v>102</v>
       </c>
       <c r="K51" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I51)&lt;2,"",LEFT(B51&amp;"  ",2)&amp;RIGHT("   "&amp;C51,3)&amp;RIGHT("   "&amp;G51,3)&amp;RIGHT("   "&amp;H51,3)&amp;RIGHT("    "&amp;F51,4)&amp;" "&amp;LEFT(J51&amp;"                            ",25)&amp;" " &amp;I51)</f>
         <v/>
       </c>
       <c r="L51">
@@ -5562,7 +5565,7 @@
         <v>104</v>
       </c>
       <c r="K52" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I52)&lt;2,"",LEFT(B52&amp;"  ",2)&amp;RIGHT("   "&amp;C52,3)&amp;RIGHT("   "&amp;G52,3)&amp;RIGHT("   "&amp;H52,3)&amp;RIGHT("    "&amp;F52,4)&amp;" "&amp;LEFT(J52&amp;"                            ",25)&amp;" " &amp;I52)</f>
         <v/>
       </c>
       <c r="L52">
@@ -5603,7 +5606,7 @@
         <v>106</v>
       </c>
       <c r="K53" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I53)&lt;2,"",LEFT(B53&amp;"  ",2)&amp;RIGHT("   "&amp;C53,3)&amp;RIGHT("   "&amp;G53,3)&amp;RIGHT("   "&amp;H53,3)&amp;RIGHT("    "&amp;F53,4)&amp;" "&amp;LEFT(J53&amp;"                            ",25)&amp;" " &amp;I53)</f>
         <v/>
       </c>
       <c r="L53">
@@ -5644,7 +5647,7 @@
         <v>108</v>
       </c>
       <c r="K54" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I54)&lt;2,"",LEFT(B54&amp;"  ",2)&amp;RIGHT("   "&amp;C54,3)&amp;RIGHT("   "&amp;G54,3)&amp;RIGHT("   "&amp;H54,3)&amp;RIGHT("    "&amp;F54,4)&amp;" "&amp;LEFT(J54&amp;"                            ",25)&amp;" " &amp;I54)</f>
         <v/>
       </c>
       <c r="L54">
@@ -5685,7 +5688,7 @@
         <v>110</v>
       </c>
       <c r="K55" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I55)&lt;2,"",LEFT(B55&amp;"  ",2)&amp;RIGHT("   "&amp;C55,3)&amp;RIGHT("   "&amp;G55,3)&amp;RIGHT("   "&amp;H55,3)&amp;RIGHT("    "&amp;F55,4)&amp;" "&amp;LEFT(J55&amp;"                            ",25)&amp;" " &amp;I55)</f>
         <v/>
       </c>
       <c r="L55">
@@ -5726,7 +5729,7 @@
         <v>112</v>
       </c>
       <c r="K56" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I56)&lt;2,"",LEFT(B56&amp;"  ",2)&amp;RIGHT("   "&amp;C56,3)&amp;RIGHT("   "&amp;G56,3)&amp;RIGHT("   "&amp;H56,3)&amp;RIGHT("    "&amp;F56,4)&amp;" "&amp;LEFT(J56&amp;"                            ",25)&amp;" " &amp;I56)</f>
         <v/>
       </c>
       <c r="L56">
@@ -5767,7 +5770,7 @@
         <v>114</v>
       </c>
       <c r="K57" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I57)&lt;2,"",LEFT(B57&amp;"  ",2)&amp;RIGHT("   "&amp;C57,3)&amp;RIGHT("   "&amp;G57,3)&amp;RIGHT("   "&amp;H57,3)&amp;RIGHT("    "&amp;F57,4)&amp;" "&amp;LEFT(J57&amp;"                            ",25)&amp;" " &amp;I57)</f>
         <v/>
       </c>
       <c r="L57">
@@ -5808,7 +5811,7 @@
         <v>116</v>
       </c>
       <c r="K58" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I58)&lt;2,"",LEFT(B58&amp;"  ",2)&amp;RIGHT("   "&amp;C58,3)&amp;RIGHT("   "&amp;G58,3)&amp;RIGHT("   "&amp;H58,3)&amp;RIGHT("    "&amp;F58,4)&amp;" "&amp;LEFT(J58&amp;"                            ",25)&amp;" " &amp;I58)</f>
         <v/>
       </c>
       <c r="L58">
@@ -5849,7 +5852,7 @@
         <v>333</v>
       </c>
       <c r="K59" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I59)&lt;2,"",LEFT(B59&amp;"  ",2)&amp;RIGHT("   "&amp;C59,3)&amp;RIGHT("   "&amp;G59,3)&amp;RIGHT("   "&amp;H59,3)&amp;RIGHT("    "&amp;F59,4)&amp;" "&amp;LEFT(J59&amp;"                            ",25)&amp;" " &amp;I59)</f>
         <v>C   6 80  5   0 C IN N-C-N, IM+ ION       $([cD3r500]([#7D3v3])=[#7D3v4&amp;!r600&amp;!$([#7][OD1])])</v>
       </c>
       <c r="L59">
@@ -5890,7 +5893,7 @@
         <v>766</v>
       </c>
       <c r="K60" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I60)&lt;2,"",LEFT(B60&amp;"  ",2)&amp;RIGHT("   "&amp;C60,3)&amp;RIGHT("   "&amp;G60,3)&amp;RIGHT("   "&amp;H60,3)&amp;RIGHT("    "&amp;F60,4)&amp;" "&amp;LEFT(J60&amp;"                            ",25)&amp;" " &amp;I60)</f>
         <v>C   6 78  5   0 general 5-ring C both alp [$([cD3r500]1[oD2r500,sD2r500,nD3v3r500]aaa1);$([cD3r500]1a[oD2r500,sD2r500,nD3v3r500]aa1)]</v>
       </c>
       <c r="L60">
@@ -5931,7 +5934,7 @@
         <v>759</v>
       </c>
       <c r="K61" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I61)&lt;2,"",LEFT(B61&amp;"  ",2)&amp;RIGHT("   "&amp;C61,3)&amp;RIGHT("   "&amp;G61,3)&amp;RIGHT("   "&amp;H61,3)&amp;RIGHT("    "&amp;F61,4)&amp;" "&amp;LEFT(J61&amp;"                            ",25)&amp;" " &amp;I61)</f>
         <v>C   6 63  5   0 ALPHA AROM 5-RING  C (fur $([cD3r500]:[oD2r500,sD2r500])</v>
       </c>
       <c r="L61">
@@ -5972,7 +5975,7 @@
         <v>760</v>
       </c>
       <c r="K62" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I62)&lt;2,"",LEFT(B62&amp;"  ",2)&amp;RIGHT("   "&amp;C62,3)&amp;RIGHT("   "&amp;G62,3)&amp;RIGHT("   "&amp;H62,3)&amp;RIGHT("    "&amp;F62,4)&amp;" "&amp;LEFT(J62&amp;"                            ",25)&amp;" " &amp;I62)</f>
         <v>C   6 64  5   0 BETA AROM 5-RING  C (fura $([cD3r500]:a:[oD2r500,sD2r500])</v>
       </c>
       <c r="L62">
@@ -6013,7 +6016,7 @@
         <v>767</v>
       </c>
       <c r="K63" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I63)&lt;2,"",LEFT(B63&amp;"  ",2)&amp;RIGHT("   "&amp;C63,3)&amp;RIGHT("   "&amp;G63,3)&amp;RIGHT("   "&amp;H63,3)&amp;RIGHT("    "&amp;F63,4)&amp;" "&amp;LEFT(J63&amp;"                            ",25)&amp;" " &amp;I63)</f>
         <v>C   6 78  5   0 general 5-ring C (imidzol [$([cD3r500]1[nv4r500&amp;!$(n[OD1])]aaa1),$([cr500]1a[nv4r500&amp;!$(n[OD1])]aa1)]</v>
       </c>
       <c r="L63">
@@ -6054,7 +6057,7 @@
         <v>768</v>
       </c>
       <c r="K64" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I64)&lt;2,"",LEFT(B64&amp;"  ",2)&amp;RIGHT("   "&amp;C64,3)&amp;RIGHT("   "&amp;G64,3)&amp;RIGHT("   "&amp;H64,3)&amp;RIGHT("    "&amp;F64,4)&amp;" "&amp;LEFT(J64&amp;"                            ",25)&amp;" " &amp;I64)</f>
         <v>C   6 78  5   0 general 5-ring C (1,2-dia [$([cD3r500]1[cr500][cr500][nD2r500][nD2r500]1),$([cD3r500]1[cr500][nD2r500][nD2r500][cr500]1)]</v>
       </c>
       <c r="L64">
@@ -6095,7 +6098,7 @@
         <v>310</v>
       </c>
       <c r="K65" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I65)&lt;2,"",LEFT(B65&amp;"  ",2)&amp;RIGHT("   "&amp;C65,3)&amp;RIGHT("   "&amp;G65,3)&amp;RIGHT("   "&amp;H65,3)&amp;RIGHT("    "&amp;F65,4)&amp;" "&amp;LEFT(J65&amp;"                            ",25)&amp;" " &amp;I65)</f>
         <v>C   6 63  5   0 ALPHA AROM 5-RING  C      $([cD3r500]:[nD3v3r500])</v>
       </c>
       <c r="L65">
@@ -6136,7 +6139,7 @@
         <v>311</v>
       </c>
       <c r="K66" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I66)&lt;2,"",LEFT(B66&amp;"  ",2)&amp;RIGHT("   "&amp;C66,3)&amp;RIGHT("   "&amp;G66,3)&amp;RIGHT("   "&amp;H66,3)&amp;RIGHT("    "&amp;F66,4)&amp;" "&amp;LEFT(J66&amp;"                            ",25)&amp;" " &amp;I66)</f>
         <v>C   6 64  5   0 BETA AROM 5-RING  C       $([cD3r500]1a[nD3v3r500]aa1)</v>
       </c>
       <c r="L66">
@@ -6177,7 +6180,7 @@
         <v>635</v>
       </c>
       <c r="K67" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I67)&lt;2,"",LEFT(B67&amp;"  ",2)&amp;RIGHT("   "&amp;C67,3)&amp;RIGHT("   "&amp;G67,3)&amp;RIGHT("   "&amp;H67,3)&amp;RIGHT("    "&amp;F67,4)&amp;" "&amp;LEFT(J67&amp;"                            ",25)&amp;" " &amp;I67)</f>
         <v>C   6 37  5   0 CARBON AS IN BENZENE, PYR [cD3]1ccccc1</v>
       </c>
       <c r="L67">
@@ -6218,7 +6221,7 @@
         <v>331</v>
       </c>
       <c r="K68" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I68)&lt;2,"",LEFT(B68&amp;"  ",2)&amp;RIGHT("   "&amp;C68,3)&amp;RIGHT("   "&amp;G68,3)&amp;RIGHT("   "&amp;H68,3)&amp;RIGHT("    "&amp;F68,4)&amp;" "&amp;LEFT(J68&amp;"                            ",25)&amp;" " &amp;I68)</f>
         <v>C   6 78  5   0 GENERAL AROM 5-RING C     [cD3r500]</v>
       </c>
       <c r="L68">
@@ -6259,7 +6262,7 @@
         <v>272</v>
       </c>
       <c r="K69" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I69)&lt;2,"",LEFT(B69&amp;"  ",2)&amp;RIGHT("   "&amp;C69,3)&amp;RIGHT("   "&amp;G69,3)&amp;RIGHT("   "&amp;H69,3)&amp;RIGHT("    "&amp;F69,4)&amp;" "&amp;LEFT(J69&amp;"                            ",25)&amp;" " &amp;I69)</f>
         <v>C   6 37  5   0 AROMATIC C                [cD3]</v>
       </c>
       <c r="L69">
@@ -6300,7 +6303,7 @@
         <v>118</v>
       </c>
       <c r="K70" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I70)&lt;2,"",LEFT(B70&amp;"  ",2)&amp;RIGHT("   "&amp;C70,3)&amp;RIGHT("   "&amp;G70,3)&amp;RIGHT("   "&amp;H70,3)&amp;RIGHT("    "&amp;F70,4)&amp;" "&amp;LEFT(J70&amp;"                            ",25)&amp;" " &amp;I70)</f>
         <v>C   6  4  5   0 ACETYLENIC C              $([#6D2]#*)</v>
       </c>
       <c r="L70">
@@ -6341,7 +6344,7 @@
         <v>690</v>
       </c>
       <c r="K71" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I71)&lt;2,"",LEFT(B71&amp;"  ",2)&amp;RIGHT("   "&amp;C71,3)&amp;RIGHT("   "&amp;G71,3)&amp;RIGHT("   "&amp;H71,3)&amp;RIGHT("    "&amp;F71,4)&amp;" "&amp;LEFT(J71&amp;"                            ",25)&amp;" " &amp;I71)</f>
         <v>C   6  4  5   0 ALLENIC C (also isocyanat $([#6D2](=*)=*)</v>
       </c>
       <c r="L71">
@@ -6382,7 +6385,7 @@
         <v>307</v>
       </c>
       <c r="K72" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I72)&lt;2,"",LEFT(B72&amp;"  ",2)&amp;RIGHT("   "&amp;C72,3)&amp;RIGHT("   "&amp;G72,3)&amp;RIGHT("   "&amp;H72,3)&amp;RIGHT("    "&amp;F72,4)&amp;" "&amp;LEFT(J72&amp;"                            ",25)&amp;" " &amp;I72)</f>
         <v>C   6 60  0   0 ISONITRILE CARBON         $([CD1]#N)</v>
       </c>
       <c r="L72">
@@ -6423,7 +6426,7 @@
         <v>281</v>
       </c>
       <c r="K73" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I73)&lt;2,"",LEFT(B73&amp;"  ",2)&amp;RIGHT("   "&amp;C73,3)&amp;RIGHT("   "&amp;G73,3)&amp;RIGHT("   "&amp;H73,3)&amp;RIGHT("    "&amp;F73,4)&amp;" "&amp;LEFT(J73&amp;"                            ",25)&amp;" " &amp;I73)</f>
         <v>N   7 42  0   0 N TRIPLE BONDED           $([ND1]#*)</v>
       </c>
       <c r="L73">
@@ -6464,7 +6467,7 @@
         <v>289</v>
       </c>
       <c r="K74" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I74)&lt;2,"",LEFT(B74&amp;"  ",2)&amp;RIGHT("   "&amp;C74,3)&amp;RIGHT("   "&amp;G74,3)&amp;RIGHT("   "&amp;H74,3)&amp;RIGHT("    "&amp;F74,4)&amp;" "&amp;LEFT(J74&amp;"                            ",25)&amp;" " &amp;I74)</f>
         <v>N   7 47  0   0 TERMINAL N, AZIDE         $([ND1][ND2])</v>
       </c>
       <c r="L74">
@@ -6505,7 +6508,7 @@
         <v>294</v>
       </c>
       <c r="K75" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I75)&lt;2,"",LEFT(B75&amp;"  ",2)&amp;RIGHT("   "&amp;C75,3)&amp;RIGHT("   "&amp;G75,3)&amp;RIGHT("   "&amp;H75,3)&amp;RIGHT("    "&amp;F75,4)&amp;" "&amp;LEFT(J75&amp;"                            ",25)&amp;" " &amp;I75)</f>
         <v>N   7 53  0   0 N TWICE DOUBLE BONDED     $([ND2](=*)=*)</v>
       </c>
       <c r="L75">
@@ -6546,7 +6549,7 @@
         <v>161</v>
       </c>
       <c r="K76" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I76)&lt;2,"",LEFT(B76&amp;"  ",2)&amp;RIGHT("   "&amp;C76,3)&amp;RIGHT("   "&amp;G76,3)&amp;RIGHT("   "&amp;H76,3)&amp;RIGHT("    "&amp;F76,4)&amp;" "&amp;LEFT(J76&amp;"                            ",25)&amp;" " &amp;I76)</f>
         <v>N   7  9 27   0 N=C, IMINES               $([ND2]=[#6,#7])</v>
       </c>
       <c r="L76">
@@ -6587,7 +6590,7 @@
         <v>163</v>
       </c>
       <c r="K77" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I77)&lt;2,"",LEFT(B77&amp;"  ",2)&amp;RIGHT("   "&amp;C77,3)&amp;RIGHT("   "&amp;G77,3)&amp;RIGHT("   "&amp;H77,3)&amp;RIGHT("    "&amp;F77,4)&amp;" "&amp;LEFT(J77&amp;"                            ",25)&amp;" " &amp;I77)</f>
         <v/>
       </c>
       <c r="L77">
@@ -6627,7 +6630,7 @@
         <v>748</v>
       </c>
       <c r="K78" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I78)&lt;2,"",LEFT(B78&amp;"  ",2)&amp;RIGHT("   "&amp;C78,3)&amp;RIGHT("   "&amp;G78,3)&amp;RIGHT("   "&amp;H78,3)&amp;RIGHT("    "&amp;F78,4)&amp;" "&amp;LEFT(J78&amp;"                            ",25)&amp;" " &amp;I78)</f>
         <v>N   7 43 28   0 N, SULFONAMIDES (S(O)2-N= $([ND2v3]S([OD1])[OD1])</v>
       </c>
       <c r="L78">
@@ -6671,7 +6674,7 @@
         <v>288</v>
       </c>
       <c r="K79" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I79)&lt;2,"",LEFT(B79&amp;"  ",2)&amp;RIGHT("   "&amp;C79,3)&amp;RIGHT("   "&amp;G79,3)&amp;RIGHT("   "&amp;H79,3)&amp;RIGHT("    "&amp;F79,4)&amp;" "&amp;LEFT(J79&amp;"                            ",25)&amp;" " &amp;I79)</f>
         <v>N   7 46  0   0 NITROSO GROUP N           $([ND2](=O)[#6,#7])</v>
       </c>
       <c r="L79">
@@ -6712,7 +6715,7 @@
         <v>637</v>
       </c>
       <c r="K80" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I80)&lt;2,"",LEFT(B80&amp;"  ",2)&amp;RIGHT("   "&amp;C80,3)&amp;RIGHT("   "&amp;G80,3)&amp;RIGHT("   "&amp;H80,3)&amp;RIGHT("    "&amp;F80,4)&amp;" "&amp;LEFT(J80&amp;"                            ",25)&amp;" " &amp;I80)</f>
         <v>N   7 48 28   0 DIVALENT NITROGEN REPLACI $([ND2][SD4]([OD1])([#6])[#6])</v>
       </c>
       <c r="L80">
@@ -6754,7 +6757,7 @@
         <v>309</v>
       </c>
       <c r="K81" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I81)&lt;2,"",LEFT(B81&amp;"  ",2)&amp;RIGHT("   "&amp;C81,3)&amp;RIGHT("   "&amp;G81,3)&amp;RIGHT("   "&amp;H81,3)&amp;RIGHT("    "&amp;F81,4)&amp;" "&amp;LEFT(J81&amp;"                            ",25)&amp;" " &amp;I81)</f>
         <v>N   7 62 23 -12 SULFONAMIDE N-            [$([ND2v2][SD4]),$([ND2v2][CD3])]</v>
       </c>
       <c r="L81">
@@ -6795,7 +6798,7 @@
         <v>308</v>
       </c>
       <c r="K82" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I82)&lt;2,"",LEFT(B82&amp;"  ",2)&amp;RIGHT("   "&amp;C82,3)&amp;RIGHT("   "&amp;G82,3)&amp;RIGHT("   "&amp;H82,3)&amp;RIGHT("    "&amp;F82,4)&amp;" "&amp;LEFT(J82&amp;"                            ",25)&amp;" " &amp;I82)</f>
         <v>N   7 61  0   0 ISONITRILE N              $([ND2]#[#6])</v>
       </c>
       <c r="L82">
@@ -6836,7 +6839,7 @@
         <v>780</v>
       </c>
       <c r="K83" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I83)&lt;2,"",LEFT(B83&amp;"  ",2)&amp;RIGHT("   "&amp;C83,3)&amp;RIGHT("   "&amp;G83,3)&amp;RIGHT("   "&amp;H83,3)&amp;RIGHT("    "&amp;F83,4)&amp;" "&amp;LEFT(J83&amp;"                            ",25)&amp;" " &amp;I83)</f>
         <v>N   7 61  0  12 diazo N (+1)              $([ND2]#[#7])</v>
       </c>
       <c r="L83">
@@ -6877,7 +6880,7 @@
         <v>273</v>
       </c>
       <c r="K84" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I84)&lt;2,"",LEFT(B84&amp;"  ",2)&amp;RIGHT("   "&amp;C84,3)&amp;RIGHT("   "&amp;G84,3)&amp;RIGHT("   "&amp;H84,3)&amp;RIGHT("    "&amp;F84,4)&amp;" "&amp;LEFT(J84&amp;"                            ",25)&amp;" " &amp;I84)</f>
         <v>N   7 38  0   0 AROMATIC N, PYRIDINE      [nD2r600]</v>
       </c>
       <c r="L84">
@@ -6918,7 +6921,7 @@
         <v>751</v>
       </c>
       <c r="K85" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I85)&lt;2,"",LEFT(B85&amp;"  ",2)&amp;RIGHT("   "&amp;C85,3)&amp;RIGHT("   "&amp;G85,3)&amp;RIGHT("   "&amp;H85,3)&amp;RIGHT("    "&amp;F85,4)&amp;" "&amp;LEFT(J85&amp;"                            ",25)&amp;" " &amp;I85)</f>
         <v>N   7 65  0   0 ALPHA AROM 5-RING N (thio $([nD2r500][sD2])</v>
       </c>
       <c r="L85">
@@ -6960,7 +6963,7 @@
         <v>752</v>
       </c>
       <c r="K86" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I86)&lt;2,"",LEFT(B86&amp;"  ",2)&amp;RIGHT("   "&amp;C86,3)&amp;RIGHT("   "&amp;G86,3)&amp;RIGHT("   "&amp;H86,3)&amp;RIGHT("    "&amp;F86,4)&amp;" "&amp;LEFT(J86&amp;"                            ",25)&amp;" " &amp;I86)</f>
         <v>N   7 66  0   0 (BETA) AROM 5-RING N (thi $([nD2r500]:a:[sD2])</v>
       </c>
       <c r="L86">
@@ -7001,7 +7004,7 @@
         <v>757</v>
       </c>
       <c r="K87" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I87)&lt;2,"",LEFT(B87&amp;"  ",2)&amp;RIGHT("   "&amp;C87,3)&amp;RIGHT("   "&amp;G87,3)&amp;RIGHT("   "&amp;H87,3)&amp;RIGHT("    "&amp;F87,4)&amp;" "&amp;LEFT(J87&amp;"                            ",25)&amp;" " &amp;I87)</f>
         <v>N   7 65  0   0 ALPHA AROM 5-RING N (fura $([nD2r500]:[oD2])</v>
       </c>
       <c r="L87">
@@ -7042,7 +7045,7 @@
         <v>758</v>
       </c>
       <c r="K88" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I88)&lt;2,"",LEFT(B88&amp;"  ",2)&amp;RIGHT("   "&amp;C88,3)&amp;RIGHT("   "&amp;G88,3)&amp;RIGHT("   "&amp;H88,3)&amp;RIGHT("    "&amp;F88,4)&amp;" "&amp;LEFT(J88&amp;"                            ",25)&amp;" " &amp;I88)</f>
         <v>N   7 66  0   0 (BETA) AROM 5-RING N (fur $([nD2r500]:a:[oD2])</v>
       </c>
       <c r="L88">
@@ -7083,7 +7086,7 @@
         <v>312</v>
       </c>
       <c r="K89" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I89)&lt;2,"",LEFT(B89&amp;"  ",2)&amp;RIGHT("   "&amp;C89,3)&amp;RIGHT("   "&amp;G89,3)&amp;RIGHT("   "&amp;H89,3)&amp;RIGHT("    "&amp;F89,4)&amp;" "&amp;LEFT(J89&amp;"                            ",25)&amp;" " &amp;I89)</f>
         <v>N   7 65  0   0 ALPHA AROM 5-RING N       [$([nD2r500]:[nD3v3])&amp;!$([$(n:[$([nv4])&amp;!$([#7][OD1])]),$(n:a=[$([nv4])&amp;!$([#7][OD1])]),$(n=a:[$([nv4])&amp;!$([#7][OD1])])])]</v>
       </c>
       <c r="L89">
@@ -7124,7 +7127,7 @@
         <v>628</v>
       </c>
       <c r="K90" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I90)&lt;2,"",LEFT(B90&amp;"  ",2)&amp;RIGHT("   "&amp;C90,3)&amp;RIGHT("   "&amp;G90,3)&amp;RIGHT("   "&amp;H90,3)&amp;RIGHT("    "&amp;F90,4)&amp;" "&amp;LEFT(J90&amp;"                            ",25)&amp;" " &amp;I90)</f>
         <v>N   7 66  0   0 (BETA) AROM 5-RING N      [$([nD2r500]:a:[nD3v3])&amp;!$([$(n:[$([nv4])&amp;!$([#7][OD1])]),$(n:a=[$([nv4])&amp;!$([#7][OD1])]),$(n=a:[$([nv4])&amp;!$([#7][OD1])])])]</v>
       </c>
       <c r="L90">
@@ -7165,7 +7168,7 @@
         <v>328</v>
       </c>
       <c r="K91" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I91)&lt;2,"",LEFT(B91&amp;"  ",2)&amp;RIGHT("   "&amp;C91,3)&amp;RIGHT("   "&amp;G91,3)&amp;RIGHT("   "&amp;H91,3)&amp;RIGHT("    "&amp;F91,4)&amp;" "&amp;LEFT(J91&amp;"                            ",25)&amp;" " &amp;I91)</f>
         <v>N   7 76  0  -3 NEG N IN TETRAZOLE AN     [nD2r500][nD2r500][nD2r500][nD2r500]</v>
       </c>
       <c r="L91">
@@ -7206,7 +7209,7 @@
         <v>715</v>
       </c>
       <c r="K92" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I92)&lt;2,"",LEFT(B92&amp;"  ",2)&amp;RIGHT("   "&amp;C92,3)&amp;RIGHT("   "&amp;G92,3)&amp;RIGHT("   "&amp;H92,3)&amp;RIGHT("    "&amp;F92,4)&amp;" "&amp;LEFT(J92&amp;"                            ",25)&amp;" " &amp;I92)</f>
         <v>N   7 76  0  -4 (NEG N IN TRIAZOLE)       [nD2r500]:[nD2r500]:c:[nD2r500]</v>
       </c>
       <c r="L92">
@@ -7250,7 +7253,7 @@
         <v>742</v>
       </c>
       <c r="K93" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I93)&lt;2,"",LEFT(B93&amp;"  ",2)&amp;RIGHT("   "&amp;C93,3)&amp;RIGHT("   "&amp;G93,3)&amp;RIGHT("   "&amp;H93,3)&amp;RIGHT("    "&amp;F93,4)&amp;" "&amp;LEFT(J93&amp;"                            ",25)&amp;" " &amp;I93)</f>
         <v>N   7 76  0  -6 NEG N IN DIAZOLE          $([nD2r500][nD2r500]ccc)</v>
       </c>
       <c r="L93">
@@ -7294,7 +7297,7 @@
         <v>332</v>
       </c>
       <c r="K94" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I94)&lt;2,"",LEFT(B94&amp;"  ",2)&amp;RIGHT("   "&amp;C94,3)&amp;RIGHT("   "&amp;G94,3)&amp;RIGHT("   "&amp;H94,3)&amp;RIGHT("    "&amp;F94,4)&amp;" "&amp;LEFT(J94&amp;"                            ",25)&amp;" " &amp;I94)</f>
         <v>N   7 79  0   0 GENERAL AROM 5-RING N     [nD2r500]</v>
       </c>
       <c r="L94">
@@ -7335,7 +7338,7 @@
         <v>286</v>
       </c>
       <c r="K95" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I95)&lt;2,"",LEFT(B95&amp;"  ",2)&amp;RIGHT("   "&amp;C95,3)&amp;RIGHT("   "&amp;G95,3)&amp;RIGHT("   "&amp;H95,3)&amp;RIGHT("    "&amp;F95,4)&amp;" "&amp;LEFT(J95&amp;"                            ",25)&amp;" " &amp;I95)</f>
         <v>N   7 45  0   0 NITRO GROUP N             $([ND3](=O)O)</v>
       </c>
       <c r="L95">
@@ -7376,7 +7379,7 @@
         <v>287</v>
       </c>
       <c r="K96" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I96)&lt;2,"",LEFT(B96&amp;"  ",2)&amp;RIGHT("   "&amp;C96,3)&amp;RIGHT("   "&amp;G96,3)&amp;RIGHT("   "&amp;H96,3)&amp;RIGHT("    "&amp;F96,4)&amp;" "&amp;LEFT(J96&amp;"                            ",25)&amp;" " &amp;I96)</f>
         <v/>
       </c>
       <c r="L96">
@@ -7417,7 +7420,7 @@
         <v>313</v>
       </c>
       <c r="K97" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I97)&lt;2,"",LEFT(B97&amp;"  ",2)&amp;RIGHT("   "&amp;C97,3)&amp;RIGHT("   "&amp;G97,3)&amp;RIGHT("   "&amp;H97,3)&amp;RIGHT("    "&amp;F97,4)&amp;" "&amp;LEFT(J97&amp;"                            ",25)&amp;" " &amp;I97)</f>
         <v>N   7 67 23   0 NITROGEN IN N-OXIDE       [$([ND3]([OD1])([#6])[#6]),$([ND3]([OD1])=[#6,#7])]</v>
       </c>
       <c r="L97">
@@ -7458,7 +7461,7 @@
         <v>300</v>
       </c>
       <c r="K98" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I98)&lt;2,"",LEFT(B98&amp;"  ",2)&amp;RIGHT("   "&amp;C98,3)&amp;RIGHT("   "&amp;G98,3)&amp;RIGHT("   "&amp;H98,3)&amp;RIGHT("    "&amp;F98,4)&amp;" "&amp;LEFT(J98&amp;"                            ",25)&amp;" " &amp;I98)</f>
         <v>N   7 56 36   4 GUANIDINIUM N; Q=1/3      [$([ND3v3][#6D3]([#7D3v3&amp;!r600&amp;!$([#7][OD1])])=[#7D3v4&amp;!r600&amp;!$([#7][OD1])]),$([ND3v4]=[#6D3]([#7D3v3&amp;!r600&amp;!$([#7][OD1])])[#7D3v3&amp;!r600&amp;!$([#7][OD1])])]</v>
       </c>
       <c r="L98">
@@ -7499,7 +7502,7 @@
         <v>299</v>
       </c>
       <c r="K99" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I99)&lt;2,"",LEFT(B99&amp;"  ",2)&amp;RIGHT("   "&amp;C99,3)&amp;RIGHT("   "&amp;G99,3)&amp;RIGHT("   "&amp;H99,3)&amp;RIGHT("    "&amp;F99,4)&amp;" "&amp;LEFT(J99&amp;"                            ",25)&amp;" " &amp;I99)</f>
         <v>N   7 55 36   6 N IN +N=C-N: ; Q=1/2      [$([ND3v4]=[#6D3][#7D3v3]),$([ND3v3][#6D3]=[#7D3v4&amp;!r600&amp;!$([#7][OD1])])]</v>
       </c>
       <c r="L99">
@@ -7540,7 +7543,7 @@
         <v>296</v>
       </c>
       <c r="K100" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I100)&lt;2,"",LEFT(B100&amp;"  ",2)&amp;RIGHT("   "&amp;C100,3)&amp;RIGHT("   "&amp;G100,3)&amp;RIGHT("   "&amp;H100,3)&amp;RIGHT("    "&amp;F100,4)&amp;" "&amp;LEFT(J100&amp;"                            ",25)&amp;" " &amp;I100)</f>
         <v>N   7 54 36  12 IMINIUM NITROGEN          $([ND3v4]=[#6,#7])</v>
       </c>
       <c r="L100">
@@ -7581,7 +7584,7 @@
         <v>298</v>
       </c>
       <c r="K101" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(LEN(I101)&lt;2,"",LEFT(B101&amp;"  ",2)&amp;RIGHT("   "&amp;C101,3)&amp;RIGHT("   "&amp;G101,3)&amp;RIGHT("   "&amp;H101,3)&amp;RIGHT("    "&amp;F101,4)&amp;" "&amp;LEFT(J101&amp;"                            ",25)&amp;" " &amp;I101)</f>
         <v>N   7 54 36  12 AZONIUM NITROGEN          $([ND3v4]([H])([#6])=[#7])</v>
       </c>
       <c r="L101">
@@ -7622,7 +7625,7 @@
         <v>721</v>
       </c>
       <c r="K102" s="7" t="str">
-        <f t="shared" ref="K102:K166" si="1">IF(LEN(I102)&lt;2,"",LEFT(B102&amp;"  ",2)&amp;RIGHT("   "&amp;C102,3)&amp;RIGHT("   "&amp;G102,3)&amp;RIGHT("   "&amp;H102,3)&amp;RIGHT("    "&amp;F102,4)&amp;" "&amp;LEFT(J102&amp;"                            ",25)&amp;" " &amp;I102)</f>
+        <f>IF(LEN(I102)&lt;2,"",LEFT(B102&amp;"  ",2)&amp;RIGHT("   "&amp;C102,3)&amp;RIGHT("   "&amp;G102,3)&amp;RIGHT("   "&amp;H102,3)&amp;RIGHT("    "&amp;F102,4)&amp;" "&amp;LEFT(J102&amp;"                            ",25)&amp;" " &amp;I102)</f>
         <v>N   7 43 28   0 N, SULFONAMIDES (and phos [$([ND3]S([OD1])[OD1]),$([ND3]P([OD1])[OD1])]</v>
       </c>
       <c r="L102">
@@ -7663,7 +7666,7 @@
         <v>164</v>
       </c>
       <c r="K103" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I103)&lt;2,"",LEFT(B103&amp;"  ",2)&amp;RIGHT("   "&amp;C103,3)&amp;RIGHT("   "&amp;G103,3)&amp;RIGHT("   "&amp;H103,3)&amp;RIGHT("    "&amp;F103,4)&amp;" "&amp;LEFT(J103&amp;"                            ",25)&amp;" " &amp;I103)</f>
         <v>N   7 10 28   0 N-C=O, AMIDES             $([ND3v3][#6]=O)</v>
       </c>
       <c r="L103">
@@ -7704,7 +7707,7 @@
         <v>739</v>
       </c>
       <c r="K104" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I104)&lt;2,"",LEFT(B104&amp;"  ",2)&amp;RIGHT("   "&amp;C104,3)&amp;RIGHT("   "&amp;G104,3)&amp;RIGHT("   "&amp;H104,3)&amp;RIGHT("    "&amp;F104,4)&amp;" "&amp;LEFT(J104&amp;"                            ",25)&amp;" " &amp;I104)</f>
         <v>N   7 43 28   0 N, sulfinamide            # not implemented: [$([ND3]S[OD1])&amp;!$([ND3]S([OD1])[OD1])]</v>
       </c>
       <c r="L104">
@@ -7745,7 +7748,7 @@
         <v>732</v>
       </c>
       <c r="K105" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I105)&lt;2,"",LEFT(B105&amp;"  ",2)&amp;RIGHT("   "&amp;C105,3)&amp;RIGHT("   "&amp;G105,3)&amp;RIGHT("   "&amp;H105,3)&amp;RIGHT("    "&amp;F105,4)&amp;" "&amp;LEFT(J105&amp;"                            ",25)&amp;" " &amp;I105)</f>
         <v>N   7 39 23   0 AROMATIC N, PYRROLE (tetr $([nD3v3r500][nD2]=[nD2][nD2])</v>
       </c>
       <c r="L105">
@@ -7786,7 +7789,7 @@
         <v>166</v>
       </c>
       <c r="K106" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I106)&lt;2,"",LEFT(B106&amp;"  ",2)&amp;RIGHT("   "&amp;C106,3)&amp;RIGHT("   "&amp;G106,3)&amp;RIGHT("   "&amp;H106,3)&amp;RIGHT("    "&amp;F106,4)&amp;" "&amp;LEFT(J106&amp;"                            ",25)&amp;" " &amp;I106)</f>
         <v>N   7 10 28   0 N-C=S (DELOC LP)          $([ND3][#6]=[#16])</v>
       </c>
       <c r="L106">
@@ -7827,7 +7830,7 @@
         <v>168</v>
       </c>
       <c r="K107" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I107)&lt;2,"",LEFT(B107&amp;"  ",2)&amp;RIGHT("   "&amp;C107,3)&amp;RIGHT("   "&amp;G107,3)&amp;RIGHT("   "&amp;H107,3)&amp;RIGHT("    "&amp;F107,4)&amp;" "&amp;LEFT(J107&amp;"                            ",25)&amp;" " &amp;I107)</f>
         <v>N   7 10 28   0 N-N=C (DELOC LP)          # not implemented??$([ND3][#7]=[#6,#7])</v>
       </c>
       <c r="L107">
@@ -7868,7 +7871,7 @@
         <v>275</v>
       </c>
       <c r="K108" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I108)&lt;2,"",LEFT(B108&amp;"  ",2)&amp;RIGHT("   "&amp;C108,3)&amp;RIGHT("   "&amp;G108,3)&amp;RIGHT("   "&amp;H108,3)&amp;RIGHT("    "&amp;F108,4)&amp;" "&amp;LEFT(J108&amp;"                            ",25)&amp;" " &amp;I108)</f>
         <v>N   7 40 28   0 N-C=C (DELOC LP)          [$([ND3][#6]=[#6]),$([ND3]c)]</v>
       </c>
       <c r="L108">
@@ -7909,7 +7912,7 @@
         <v>170</v>
       </c>
       <c r="K109" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I109)&lt;2,"",LEFT(B109&amp;"  ",2)&amp;RIGHT("   "&amp;C109,3)&amp;RIGHT("   "&amp;G109,3)&amp;RIGHT("   "&amp;H109,3)&amp;RIGHT("    "&amp;F109,4)&amp;" "&amp;LEFT(J109&amp;"                            ",25)&amp;" " &amp;I109)</f>
         <v>N   7 10 28   0 N-N=N (DELOC LP)          $([ND3v3][#7D2v3]=[#7D2v3])</v>
       </c>
       <c r="L109">
@@ -7950,7 +7953,7 @@
         <v>277</v>
       </c>
       <c r="K110" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I110)&lt;2,"",LEFT(B110&amp;"  ",2)&amp;RIGHT("   "&amp;C110,3)&amp;RIGHT("   "&amp;G110,3)&amp;RIGHT("   "&amp;H110,3)&amp;RIGHT("    "&amp;F110,4)&amp;" "&amp;LEFT(J110&amp;"                            ",25)&amp;" " &amp;I110)</f>
         <v>N   7 40 28   0 N-C=N (DELOC LP)          $([ND3][#6]=[#7,#15])</v>
       </c>
       <c r="L110">
@@ -7991,7 +7994,7 @@
         <v>636</v>
       </c>
       <c r="K111" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I111)&lt;2,"",LEFT(B111&amp;"  ",2)&amp;RIGHT("   "&amp;C111,3)&amp;RIGHT("   "&amp;G111,3)&amp;RIGHT("   "&amp;H111,3)&amp;RIGHT("    "&amp;F111,4)&amp;" "&amp;LEFT(J111&amp;"                            ",25)&amp;" " &amp;I111)</f>
         <v>N   7 43 28   0 NITROGEN ATTACHED TO CYAN $([ND3][CD2][ND1])</v>
       </c>
       <c r="L111">
@@ -8035,7 +8038,7 @@
         <v>160</v>
       </c>
       <c r="K112" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I112)&lt;2,"",LEFT(B112&amp;"  ",2)&amp;RIGHT("   "&amp;C112,3)&amp;RIGHT("   "&amp;G112,3)&amp;RIGHT("   "&amp;H112,3)&amp;RIGHT("    "&amp;F112,4)&amp;" "&amp;LEFT(J112&amp;"                            ",25)&amp;" " &amp;I112)</f>
         <v>N   7  8 23   0 AMINE N                   [$([ND3](-A)(-A)-A),$([ND3](-A)(-A)-n)]</v>
       </c>
       <c r="L112">
@@ -8076,7 +8079,7 @@
         <v>367</v>
       </c>
       <c r="K113" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I113)&lt;2,"",LEFT(B113&amp;"  ",2)&amp;RIGHT("   "&amp;C113,3)&amp;RIGHT("   "&amp;G113,3)&amp;RIGHT("   "&amp;H113,3)&amp;RIGHT("    "&amp;F113,4)&amp;" "&amp;LEFT(J113&amp;"                            ",25)&amp;" " &amp;I113)</f>
         <v>N   7 82  0   0 N-OXIDE NITROGEN IN GENER $([nD3r500][OD1])</v>
       </c>
       <c r="L113">
@@ -8117,7 +8120,7 @@
         <v>365</v>
       </c>
       <c r="K114" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I114)&lt;2,"",LEFT(B114&amp;"  ",2)&amp;RIGHT("   "&amp;C114,3)&amp;RIGHT("   "&amp;G114,3)&amp;RIGHT("   "&amp;H114,3)&amp;RIGHT("    "&amp;F114,4)&amp;" "&amp;LEFT(J114&amp;"                            ",25)&amp;" " &amp;I114)</f>
         <v/>
       </c>
       <c r="L114">
@@ -8158,7 +8161,7 @@
         <v>366</v>
       </c>
       <c r="K115" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I115)&lt;2,"",LEFT(B115&amp;"  ",2)&amp;RIGHT("   "&amp;C115,3)&amp;RIGHT("   "&amp;G115,3)&amp;RIGHT("   "&amp;H115,3)&amp;RIGHT("    "&amp;F115,4)&amp;" "&amp;LEFT(J115&amp;"                            ",25)&amp;" " &amp;I115)</f>
         <v/>
       </c>
       <c r="L115">
@@ -8199,7 +8202,7 @@
         <v>313</v>
       </c>
       <c r="K116" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I116)&lt;2,"",LEFT(B116&amp;"  ",2)&amp;RIGHT("   "&amp;C116,3)&amp;RIGHT("   "&amp;G116,3)&amp;RIGHT("   "&amp;H116,3)&amp;RIGHT("    "&amp;F116,4)&amp;" "&amp;LEFT(J116&amp;"                            ",25)&amp;" " &amp;I116)</f>
         <v>N   7 69  0   0 NITROGEN IN N-OXIDE       $([nD3][OD1])</v>
       </c>
       <c r="L116">
@@ -8234,14 +8237,14 @@
         <v>36</v>
       </c>
       <c r="I117" t="s">
-        <v>784</v>
+        <v>813</v>
       </c>
       <c r="J117" t="s">
         <v>300</v>
       </c>
       <c r="K117" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>N   7 81 36   4 GUANIDINIUM N; Q=1/3      [$([nD3v3][#6D3]([#7D3v3&amp;!r600&amp;!$([#7][OD1])])=[#7D3v4&amp;!r600&amp;!$([#7][OD1])]),$([nD3v4]=[#6D3]([#7D3v3&amp;!r600&amp;!$([#7][OD1])])[#7D3v3&amp;!r600&amp;!$([#7][OD1])])]</v>
+        <f>IF(LEN(I117)&lt;2,"",LEFT(B117&amp;"  ",2)&amp;RIGHT("   "&amp;C117,3)&amp;RIGHT("   "&amp;G117,3)&amp;RIGHT("   "&amp;H117,3)&amp;RIGHT("    "&amp;F117,4)&amp;" "&amp;LEFT(J117&amp;"                            ",25)&amp;" " &amp;I117)</f>
+        <v>N   7 81 36   4 GUANIDINIUM N; Q=1/3      $([nD3v3][#6D3]([#7D3v3&amp;!r600])=[#7D3v4&amp;!r600&amp;!$([#7][OD1])])</v>
       </c>
       <c r="L117">
         <v>1175</v>
@@ -8249,7 +8252,7 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="B118" t="s">
         <v>29</v>
@@ -8266,7 +8269,7 @@
         <v>3</v>
       </c>
       <c r="F118">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G118" s="5">
         <v>81</v>
@@ -8275,17 +8278,17 @@
         <v>36</v>
       </c>
       <c r="I118" t="s">
-        <v>737</v>
+        <v>812</v>
       </c>
       <c r="J118" t="s">
-        <v>335</v>
+        <v>300</v>
       </c>
       <c r="K118" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>N   7 81 36   6 N IN N-C-N, IM+ ION       [$([nD3r500v4]=[cD3][#7D3v3]),$([nD3r500v3][#6D3]=[#7D3v4&amp;!r600&amp;!$([#7][OD1])])]</v>
+        <f>IF(LEN(I118)&lt;2,"",LEFT(B118&amp;"  ",2)&amp;RIGHT("   "&amp;C118,3)&amp;RIGHT("   "&amp;G118,3)&amp;RIGHT("   "&amp;H118,3)&amp;RIGHT("    "&amp;F118,4)&amp;" "&amp;LEFT(J118&amp;"                            ",25)&amp;" " &amp;I118)</f>
+        <v>N   7 81 36   4 GUANIDINIUM N; Q=1/3      $([nD3v4]=[#6D3]([#7D3v3&amp;!r600])[#7D3v3&amp;!r600&amp;!$([#7][OD1])])</v>
       </c>
       <c r="L118">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
@@ -8300,14 +8303,14 @@
         <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>638</v>
+        <v>334</v>
       </c>
       <c r="E119">
         <f>VLOOKUP(G119,props!B:J,3,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F119">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G119" s="5">
         <v>81</v>
@@ -8316,22 +8319,22 @@
         <v>36</v>
       </c>
       <c r="I119" t="s">
-        <v>702</v>
+        <v>737</v>
       </c>
       <c r="J119" t="s">
-        <v>639</v>
+        <v>335</v>
       </c>
       <c r="K119" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>N   7 81 36  12 POSITIVE N5B NITROGEN - F $([nD3r500v4]:a:[oD2,sD2])</v>
+        <f>IF(LEN(I119)&lt;2,"",LEFT(B119&amp;"  ",2)&amp;RIGHT("   "&amp;C119,3)&amp;RIGHT("   "&amp;G119,3)&amp;RIGHT("   "&amp;H119,3)&amp;RIGHT("    "&amp;F119,4)&amp;" "&amp;LEFT(J119&amp;"                            ",25)&amp;" " &amp;I119)</f>
+        <v>N   7 81 36   6 N IN N-C-N, IM+ ION       [$([nD3r500v4]=[cD3][#7D3v3]),$([nD3r500v3][#6D3]=[#7D3v4&amp;!r600&amp;!$([#7][OD1])])]</v>
       </c>
       <c r="L119">
-        <v>1190</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="B120" t="s">
         <v>29</v>
@@ -8341,7 +8344,7 @@
         <v>7</v>
       </c>
       <c r="D120" t="s">
-        <v>48</v>
+        <v>638</v>
       </c>
       <c r="E120">
         <f>VLOOKUP(G120,props!B:J,3,FALSE)</f>
@@ -8351,28 +8354,28 @@
         <v>12</v>
       </c>
       <c r="G120" s="5">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="H120" s="5">
         <v>36</v>
       </c>
       <c r="I120" t="s">
-        <v>726</v>
+        <v>702</v>
       </c>
       <c r="J120" t="s">
-        <v>304</v>
+        <v>639</v>
       </c>
       <c r="K120" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>N   7 58 36  12 N PYRIDINIUM ION          [nD3r600v4]</v>
+        <f>IF(LEN(I120)&lt;2,"",LEFT(B120&amp;"  ",2)&amp;RIGHT("   "&amp;C120,3)&amp;RIGHT("   "&amp;G120,3)&amp;RIGHT("   "&amp;H120,3)&amp;RIGHT("    "&amp;F120,4)&amp;" "&amp;LEFT(J120&amp;"                            ",25)&amp;" " &amp;I120)</f>
+        <v>N   7 81 36  12 POSITIVE N5B NITROGEN - F $([nD3r500v4]:a:[oD2,sD2])</v>
       </c>
       <c r="L120">
-        <v>1200</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B121" t="s">
         <v>29</v>
@@ -8382,38 +8385,38 @@
         <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E121">
         <f>VLOOKUP(G121,props!B:J,3,FALSE)</f>
         <v>3</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G121" s="5">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H121" s="5">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I121" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="J121" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="K121" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>N   7 39 23   0 AROMATIC N, PYRROLE       [nD3r500v3]</v>
+        <f>IF(LEN(I121)&lt;2,"",LEFT(B121&amp;"  ",2)&amp;RIGHT("   "&amp;C121,3)&amp;RIGHT("   "&amp;G121,3)&amp;RIGHT("   "&amp;H121,3)&amp;RIGHT("    "&amp;F121,4)&amp;" "&amp;LEFT(J121&amp;"                            ",25)&amp;" " &amp;I121)</f>
+        <v>N   7 58 36  12 N PYRIDINIUM ION          [nD3r600v4]</v>
       </c>
       <c r="L121">
-        <v>1210</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="B122" t="s">
         <v>29</v>
@@ -8423,38 +8426,38 @@
         <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="E122">
         <f>VLOOKUP(G122,props!B:J,3,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F122">
         <v>0</v>
       </c>
       <c r="G122" s="5">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="H122" s="5">
         <v>23</v>
       </c>
       <c r="I122" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="J122" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="K122" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>N   7 68 23   0 NITROGEN IN N-OXIDE       $([ND4][OD1])</v>
+        <f>IF(LEN(I122)&lt;2,"",LEFT(B122&amp;"  ",2)&amp;RIGHT("   "&amp;C122,3)&amp;RIGHT("   "&amp;G122,3)&amp;RIGHT("   "&amp;H122,3)&amp;RIGHT("    "&amp;F122,4)&amp;" "&amp;LEFT(J122&amp;"                            ",25)&amp;" " &amp;I122)</f>
+        <v>N   7 39 23   0 AROMATIC N, PYRROLE       [nD3r500v3]</v>
       </c>
       <c r="L122">
-        <v>1220</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="B123" t="s">
         <v>29</v>
@@ -8464,79 +8467,79 @@
         <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>259</v>
+        <v>36</v>
       </c>
       <c r="E123">
         <f>VLOOKUP(G123,props!B:J,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="F123">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G123" s="5">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="H123" s="5">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I123" t="s">
-        <v>620</v>
+        <v>678</v>
       </c>
       <c r="J123" t="s">
-        <v>260</v>
+        <v>313</v>
       </c>
       <c r="K123" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>N   7 34 36  12 N+, QUATERNARY N          [ND4]</v>
+        <f>IF(LEN(I123)&lt;2,"",LEFT(B123&amp;"  ",2)&amp;RIGHT("   "&amp;C123,3)&amp;RIGHT("   "&amp;G123,3)&amp;RIGHT("   "&amp;H123,3)&amp;RIGHT("    "&amp;F123,4)&amp;" "&amp;LEFT(J123&amp;"                            ",25)&amp;" " &amp;I123)</f>
+        <v>N   7 68 23   0 NITROGEN IN N-OXIDE       $([ND4][OD1])</v>
       </c>
       <c r="L123">
-        <v>1230</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B124" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C124">
         <f>VLOOKUP(B124,elemno!A:B,2,FALSE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="E124">
         <f>VLOOKUP(G124,props!B:J,3,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F124">
         <v>12</v>
       </c>
       <c r="G124" s="5">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="H124" s="5">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I124" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="J124" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="K124" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 49 50  12 OXONIUM (TRICOORD) O      [OD3]</v>
+        <f>IF(LEN(I124)&lt;2,"",LEFT(B124&amp;"  ",2)&amp;RIGHT("   "&amp;C124,3)&amp;RIGHT("   "&amp;G124,3)&amp;RIGHT("   "&amp;H124,3)&amp;RIGHT("    "&amp;F124,4)&amp;" "&amp;LEFT(J124&amp;"                            ",25)&amp;" " &amp;I124)</f>
+        <v>N   7 34 36  12 N+, QUATERNARY N          [ND4]</v>
       </c>
       <c r="L124">
-        <v>1260</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B125" t="s">
         <v>24</v>
@@ -8546,38 +8549,38 @@
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E125">
         <f>VLOOKUP(G125,props!B:J,3,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G125" s="5">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="H125" s="5">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I125" t="s">
-        <v>395</v>
+        <v>622</v>
       </c>
       <c r="J125" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="K125" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 70 31   0 OXYGEN IN WATER           $([OD2](H)H)</v>
+        <f>IF(LEN(I125)&lt;2,"",LEFT(B125&amp;"  ",2)&amp;RIGHT("   "&amp;C125,3)&amp;RIGHT("   "&amp;G125,3)&amp;RIGHT("   "&amp;H125,3)&amp;RIGHT("    "&amp;F125,4)&amp;" "&amp;LEFT(J125&amp;"                            ",25)&amp;" " &amp;I125)</f>
+        <v>O   8 49 50  12 OXONIUM (TRICOORD) O      [OD3]</v>
       </c>
       <c r="L125">
-        <v>1280</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B126" t="s">
         <v>24</v>
@@ -8587,7 +8590,7 @@
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>305</v>
+        <v>28</v>
       </c>
       <c r="E126">
         <f>VLOOKUP(G126,props!B:J,3,FALSE)</f>
@@ -8597,28 +8600,28 @@
         <v>0</v>
       </c>
       <c r="G126" s="5">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H126" s="5">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I126" t="s">
-        <v>686</v>
+        <v>395</v>
       </c>
       <c r="J126" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="K126" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 59  0   0 AROMATIC O, FURAN         [oD2r500]</v>
+        <f>IF(LEN(I126)&lt;2,"",LEFT(B126&amp;"  ",2)&amp;RIGHT("   "&amp;C126,3)&amp;RIGHT("   "&amp;G126,3)&amp;RIGHT("   "&amp;H126,3)&amp;RIGHT("    "&amp;F126,4)&amp;" "&amp;LEFT(J126&amp;"                            ",25)&amp;" " &amp;I126)</f>
+        <v>O   8 70 31   0 OXYGEN IN WATER           $([OD2](H)H)</v>
       </c>
       <c r="L126">
-        <v>1290</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="B127" t="s">
         <v>24</v>
@@ -8628,7 +8631,7 @@
         <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>127</v>
+        <v>305</v>
       </c>
       <c r="E127">
         <f>VLOOKUP(G127,props!B:J,3,FALSE)</f>
@@ -8638,23 +8641,23 @@
         <v>0</v>
       </c>
       <c r="G127" s="5">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="H127" s="5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>809</v>
+        <v>686</v>
       </c>
       <c r="J127" t="s">
-        <v>805</v>
+        <v>306</v>
       </c>
       <c r="K127" s="7" t="str">
-        <f t="shared" ref="K127" si="2">IF(LEN(I127)&lt;2,"",LEFT(B127&amp;"  ",2)&amp;RIGHT("   "&amp;C127,3)&amp;RIGHT("   "&amp;G127,3)&amp;RIGHT("   "&amp;H127,3)&amp;RIGHT("    "&amp;F127,4)&amp;" "&amp;LEFT(J127&amp;"                            ",25)&amp;" " &amp;I127)</f>
-        <v>O   8  6 24   0 RCO2H                     $([OD2](H)[#6]=O)</v>
+        <f>IF(LEN(I127)&lt;2,"",LEFT(B127&amp;"  ",2)&amp;RIGHT("   "&amp;C127,3)&amp;RIGHT("   "&amp;G127,3)&amp;RIGHT("   "&amp;H127,3)&amp;RIGHT("    "&amp;F127,4)&amp;" "&amp;LEFT(J127&amp;"                            ",25)&amp;" " &amp;I127)</f>
+        <v>O   8 59  0   0 AROMATIC O, FURAN         [oD2r500]</v>
       </c>
       <c r="L127">
-        <v>1320</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
@@ -8682,17 +8685,17 @@
         <v>6</v>
       </c>
       <c r="H128" s="5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I128" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="J128" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="K128" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8  6 21   0 RCO2R                     $([OD2]C=O)</v>
+        <f>IF(LEN(I128)&lt;2,"",LEFT(B128&amp;"  ",2)&amp;RIGHT("   "&amp;C128,3)&amp;RIGHT("   "&amp;G128,3)&amp;RIGHT("   "&amp;H128,3)&amp;RIGHT("    "&amp;F128,4)&amp;" "&amp;LEFT(J128&amp;"                            ",25)&amp;" " &amp;I128)</f>
+        <v>O   8  6 24   0 RCO2H                     $([OD2](H)[#6]=O)</v>
       </c>
       <c r="L128">
         <v>1320</v>
@@ -8700,7 +8703,7 @@
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B129" t="s">
         <v>24</v>
@@ -8710,7 +8713,7 @@
         <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E129">
         <f>VLOOKUP(G129,props!B:J,3,FALSE)</f>
@@ -8723,25 +8726,25 @@
         <v>6</v>
       </c>
       <c r="H129" s="5">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I129" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="J129" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="K129" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8  6 29   0 ENOL OR PHENOLIC O        $([OD2][#6D3][#6D3])</v>
+        <f>IF(LEN(I129)&lt;2,"",LEFT(B129&amp;"  ",2)&amp;RIGHT("   "&amp;C129,3)&amp;RIGHT("   "&amp;G129,3)&amp;RIGHT("   "&amp;H129,3)&amp;RIGHT("    "&amp;F129,4)&amp;" "&amp;LEFT(J129&amp;"                            ",25)&amp;" " &amp;I129)</f>
+        <v>O   8  6 21   0 RCO2R                     $([OD2]C=O)</v>
       </c>
       <c r="L129">
-        <v>1330</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B130" t="s">
         <v>24</v>
@@ -8751,7 +8754,7 @@
         <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E130">
         <f>VLOOKUP(G130,props!B:J,3,FALSE)</f>
@@ -8767,22 +8770,22 @@
         <v>29</v>
       </c>
       <c r="I130" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="J130" t="s">
-        <v>130</v>
+        <v>798</v>
       </c>
       <c r="K130" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8  6 29   0 OXYGEN IN -O-C=N MOIETY   $([OD2]-[#6D3]=[#7])</v>
+        <f>IF(LEN(I130)&lt;2,"",LEFT(B130&amp;"  ",2)&amp;RIGHT("   "&amp;C130,3)&amp;RIGHT("   "&amp;G130,3)&amp;RIGHT("   "&amp;H130,3)&amp;RIGHT("    "&amp;F130,4)&amp;" "&amp;LEFT(J130&amp;"                            ",25)&amp;" " &amp;I130)</f>
+        <v>O   8  6 29   0 ENOL OR PHENOLIC O        $([OD2][#6D3][#6D3])</v>
       </c>
       <c r="L130">
-        <v>1340</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B131" t="s">
         <v>24</v>
@@ -8792,7 +8795,7 @@
         <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E131">
         <f>VLOOKUP(G131,props!B:J,3,FALSE)</f>
@@ -8805,25 +8808,25 @@
         <v>6</v>
       </c>
       <c r="H131" s="5">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I131" t="s">
-        <v>800</v>
+        <v>807</v>
       </c>
       <c r="J131" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K131" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8  6 33   0 DIVALENT O IN SULFATE     $([OD2][#16])</v>
+        <f>IF(LEN(I131)&lt;2,"",LEFT(B131&amp;"  ",2)&amp;RIGHT("   "&amp;C131,3)&amp;RIGHT("   "&amp;G131,3)&amp;RIGHT("   "&amp;H131,3)&amp;RIGHT("    "&amp;F131,4)&amp;" "&amp;LEFT(J131&amp;"                            ",25)&amp;" " &amp;I131)</f>
+        <v>O   8  6 29   0 OXYGEN IN -O-C=N MOIETY   $([OD2]-[#6D3]=[#7])</v>
       </c>
       <c r="L131">
-        <v>1350</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B132" t="s">
         <v>24</v>
@@ -8833,7 +8836,7 @@
         <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E132">
         <f>VLOOKUP(G132,props!B:J,3,FALSE)</f>
@@ -8849,22 +8852,22 @@
         <v>33</v>
       </c>
       <c r="I132" t="s">
-        <v>364</v>
+        <v>799</v>
       </c>
       <c r="J132" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K132" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(LEN(I132)&lt;2,"",LEFT(B132&amp;"  ",2)&amp;RIGHT("   "&amp;C132,3)&amp;RIGHT("   "&amp;G132,3)&amp;RIGHT("   "&amp;H132,3)&amp;RIGHT("    "&amp;F132,4)&amp;" "&amp;LEFT(J132&amp;"                            ",25)&amp;" " &amp;I132)</f>
+        <v>O   8  6 33   0 DIVALENT O IN SULFATE     $([OD2][#16])</v>
       </c>
       <c r="L132">
-        <v>1360</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B133" t="s">
         <v>24</v>
@@ -8874,7 +8877,7 @@
         <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E133">
         <f>VLOOKUP(G133,props!B:J,3,FALSE)</f>
@@ -8893,19 +8896,19 @@
         <v>364</v>
       </c>
       <c r="J133" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K133" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I133)&lt;2,"",LEFT(B133&amp;"  ",2)&amp;RIGHT("   "&amp;C133,3)&amp;RIGHT("   "&amp;G133,3)&amp;RIGHT("   "&amp;H133,3)&amp;RIGHT("    "&amp;F133,4)&amp;" "&amp;LEFT(J133&amp;"                            ",25)&amp;" " &amp;I133)</f>
         <v/>
       </c>
       <c r="L133">
-        <v>1370</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B134" t="s">
         <v>24</v>
@@ -8914,8 +8917,8 @@
         <f>VLOOKUP(B134,elemno!A:B,2,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>352</v>
+      <c r="D134" t="s">
+        <v>135</v>
       </c>
       <c r="E134">
         <f>VLOOKUP(G134,props!B:J,3,FALSE)</f>
@@ -8934,19 +8937,19 @@
         <v>364</v>
       </c>
       <c r="J134" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K134" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I134)&lt;2,"",LEFT(B134&amp;"  ",2)&amp;RIGHT("   "&amp;C134,3)&amp;RIGHT("   "&amp;G134,3)&amp;RIGHT("   "&amp;H134,3)&amp;RIGHT("    "&amp;F134,4)&amp;" "&amp;LEFT(J134&amp;"                            ",25)&amp;" " &amp;I134)</f>
         <v/>
       </c>
       <c r="L134">
-        <v>1380</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B135" t="s">
         <v>24</v>
@@ -8955,8 +8958,8 @@
         <f>VLOOKUP(B135,elemno!A:B,2,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="D135" t="s">
-        <v>138</v>
+      <c r="D135" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="E135">
         <f>VLOOKUP(G135,props!B:J,3,FALSE)</f>
@@ -8969,25 +8972,25 @@
         <v>6</v>
       </c>
       <c r="H135" s="5">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I135" t="s">
-        <v>801</v>
+        <v>364</v>
       </c>
       <c r="J135" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K135" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8  6 24   0 DIVALENT O IN PHOSPHATE   $([OD2][#15])</v>
+        <f>IF(LEN(I135)&lt;2,"",LEFT(B135&amp;"  ",2)&amp;RIGHT("   "&amp;C135,3)&amp;RIGHT("   "&amp;G135,3)&amp;RIGHT("   "&amp;H135,3)&amp;RIGHT("    "&amp;F135,4)&amp;" "&amp;LEFT(J135&amp;"                            ",25)&amp;" " &amp;I135)</f>
+        <v/>
       </c>
       <c r="L135">
-        <v>1390</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B136" t="s">
         <v>24</v>
@@ -8997,7 +9000,7 @@
         <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E136">
         <f>VLOOKUP(G136,props!B:J,3,FALSE)</f>
@@ -9013,22 +9016,22 @@
         <v>24</v>
       </c>
       <c r="I136" t="s">
-        <v>364</v>
+        <v>800</v>
       </c>
       <c r="J136" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K136" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(LEN(I136)&lt;2,"",LEFT(B136&amp;"  ",2)&amp;RIGHT("   "&amp;C136,3)&amp;RIGHT("   "&amp;G136,3)&amp;RIGHT("   "&amp;H136,3)&amp;RIGHT("    "&amp;F136,4)&amp;" "&amp;LEFT(J136&amp;"                            ",25)&amp;" " &amp;I136)</f>
+        <v>O   8  6 24   0 DIVALENT O IN PHOSPHATE   $([OD2][#15])</v>
       </c>
       <c r="L136">
-        <v>1400</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B137" t="s">
         <v>24</v>
@@ -9038,7 +9041,7 @@
         <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E137">
         <f>VLOOKUP(G137,props!B:J,3,FALSE)</f>
@@ -9057,19 +9060,19 @@
         <v>364</v>
       </c>
       <c r="J137" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K137" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I137)&lt;2,"",LEFT(B137&amp;"  ",2)&amp;RIGHT("   "&amp;C137,3)&amp;RIGHT("   "&amp;G137,3)&amp;RIGHT("   "&amp;H137,3)&amp;RIGHT("    "&amp;F137,4)&amp;" "&amp;LEFT(J137&amp;"                            ",25)&amp;" " &amp;I137)</f>
         <v/>
       </c>
       <c r="L137">
-        <v>1410</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B138" t="s">
         <v>24</v>
@@ -9078,8 +9081,8 @@
         <f>VLOOKUP(B138,elemno!A:B,2,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>353</v>
+      <c r="D138" t="s">
+        <v>142</v>
       </c>
       <c r="E138">
         <f>VLOOKUP(G138,props!B:J,3,FALSE)</f>
@@ -9098,19 +9101,19 @@
         <v>364</v>
       </c>
       <c r="J138" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K138" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I138)&lt;2,"",LEFT(B138&amp;"  ",2)&amp;RIGHT("   "&amp;C138,3)&amp;RIGHT("   "&amp;G138,3)&amp;RIGHT("   "&amp;H138,3)&amp;RIGHT("    "&amp;F138,4)&amp;" "&amp;LEFT(J138&amp;"                            ",25)&amp;" " &amp;I138)</f>
         <v/>
       </c>
       <c r="L138">
-        <v>1420</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B139" t="s">
         <v>24</v>
@@ -9119,8 +9122,8 @@
         <f>VLOOKUP(B139,elemno!A:B,2,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="D139" t="s">
-        <v>28</v>
+      <c r="D139" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="E139">
         <f>VLOOKUP(G139,props!B:J,3,FALSE)</f>
@@ -9133,25 +9136,25 @@
         <v>6</v>
       </c>
       <c r="H139" s="5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I139" t="s">
-        <v>802</v>
+        <v>364</v>
       </c>
       <c r="J139" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="K139" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8  6 31   0 OXYGEN IN H2O             $([OD2]([H])[H])</v>
+        <f>IF(LEN(I139)&lt;2,"",LEFT(B139&amp;"  ",2)&amp;RIGHT("   "&amp;C139,3)&amp;RIGHT("   "&amp;G139,3)&amp;RIGHT("   "&amp;H139,3)&amp;RIGHT("    "&amp;F139,4)&amp;" "&amp;LEFT(J139&amp;"                            ",25)&amp;" " &amp;I139)</f>
+        <v/>
       </c>
       <c r="L139">
-        <v>1430</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B140" t="s">
         <v>24</v>
@@ -9161,7 +9164,7 @@
         <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="E140">
         <f>VLOOKUP(G140,props!B:J,3,FALSE)</f>
@@ -9174,25 +9177,25 @@
         <v>6</v>
       </c>
       <c r="H140" s="5">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I140" t="s">
-        <v>384</v>
+        <v>801</v>
       </c>
       <c r="J140" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K140" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8  6 21   0 O-CSP3                    $([#8D2](-*)-*)</v>
+        <f>IF(LEN(I140)&lt;2,"",LEFT(B140&amp;"  ",2)&amp;RIGHT("   "&amp;C140,3)&amp;RIGHT("   "&amp;G140,3)&amp;RIGHT("   "&amp;H140,3)&amp;RIGHT("    "&amp;F140,4)&amp;" "&amp;LEFT(J140&amp;"                            ",25)&amp;" " &amp;I140)</f>
+        <v>O   8  6 31   0 OXYGEN IN H2O             $([OD2]([H])[H])</v>
       </c>
       <c r="L140">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B141" t="s">
         <v>24</v>
@@ -9202,7 +9205,7 @@
         <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="E141">
         <f>VLOOKUP(G141,props!B:J,3,FALSE)</f>
@@ -9218,22 +9221,22 @@
         <v>21</v>
       </c>
       <c r="I141" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="J141" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="K141" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(LEN(I141)&lt;2,"",LEFT(B141&amp;"  ",2)&amp;RIGHT("   "&amp;C141,3)&amp;RIGHT("   "&amp;G141,3)&amp;RIGHT("   "&amp;H141,3)&amp;RIGHT("    "&amp;F141,4)&amp;" "&amp;LEFT(J141&amp;"                            ",25)&amp;" " &amp;I141)</f>
+        <v>O   8  6 21   0 O-CSP3                    $([#8D2](-*)-*)</v>
       </c>
       <c r="L141">
-        <v>1432</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="B142" t="s">
         <v>24</v>
@@ -9243,38 +9246,38 @@
         <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="E142">
         <f>VLOOKUP(G142,props!B:J,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="F142">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G142" s="5">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="H142" s="5">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I142" t="s">
-        <v>803</v>
+        <v>364</v>
       </c>
       <c r="J142" t="s">
-        <v>292</v>
+        <v>146</v>
       </c>
       <c r="K142" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 51 52  12 OXENIUM OXYGEN+           $([OD2]=*)</v>
+        <f>IF(LEN(I142)&lt;2,"",LEFT(B142&amp;"  ",2)&amp;RIGHT("   "&amp;C142,3)&amp;RIGHT("   "&amp;G142,3)&amp;RIGHT("   "&amp;H142,3)&amp;RIGHT("    "&amp;F142,4)&amp;" "&amp;LEFT(J142&amp;"                            ",25)&amp;" " &amp;I142)</f>
+        <v/>
       </c>
       <c r="L142">
-        <v>1470</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="B143" t="s">
         <v>24</v>
@@ -9284,38 +9287,38 @@
         <v>8</v>
       </c>
       <c r="D143" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="E143">
         <f>VLOOKUP(G143,props!B:J,3,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G143" s="5">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="H143" s="5">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I143" t="s">
-        <v>771</v>
+        <v>802</v>
       </c>
       <c r="J143" t="s">
-        <v>675</v>
+        <v>292</v>
       </c>
       <c r="K143" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8  7  0   0 O=S=C                     $([OD1]=[#16D2]=*)</v>
+        <f>IF(LEN(I143)&lt;2,"",LEFT(B143&amp;"  ",2)&amp;RIGHT("   "&amp;C143,3)&amp;RIGHT("   "&amp;G143,3)&amp;RIGHT("   "&amp;H143,3)&amp;RIGHT("    "&amp;F143,4)&amp;" "&amp;LEFT(J143&amp;"                            ",25)&amp;" " &amp;I143)</f>
+        <v>O   8 51 52  12 OXENIUM OXYGEN+           $([OD2]=*)</v>
       </c>
       <c r="L143">
-        <v>1490</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="B144" t="s">
         <v>24</v>
@@ -9325,38 +9328,38 @@
         <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>233</v>
+        <v>147</v>
       </c>
       <c r="E144">
         <f>VLOOKUP(G144,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F144">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G144" s="5">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="H144" s="5">
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>608</v>
+        <v>771</v>
       </c>
       <c r="J144" t="s">
-        <v>234</v>
+        <v>675</v>
       </c>
       <c r="K144" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 32  0  -6 O, CARBOXYLATE ANION      $([OD1][CD3][OD1])</v>
+        <f>IF(LEN(I144)&lt;2,"",LEFT(B144&amp;"  ",2)&amp;RIGHT("   "&amp;C144,3)&amp;RIGHT("   "&amp;G144,3)&amp;RIGHT("   "&amp;H144,3)&amp;RIGHT("    "&amp;F144,4)&amp;" "&amp;LEFT(J144&amp;"                            ",25)&amp;" " &amp;I144)</f>
+        <v>O   8  7  0   0 O=S=C                     $([OD1]=[#16D2]=*)</v>
       </c>
       <c r="L144">
-        <v>1500</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B145" t="s">
         <v>24</v>
@@ -9366,14 +9369,14 @@
         <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E145">
         <f>VLOOKUP(G145,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="G145" s="5">
         <v>32</v>
@@ -9382,22 +9385,22 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
       <c r="J145" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K145" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 32  0   0 NITRO-GROUP OXYGEN        $([OD1][ND3]([#6])[OD1])</v>
+        <f>IF(LEN(I145)&lt;2,"",LEFT(B145&amp;"  ",2)&amp;RIGHT("   "&amp;C145,3)&amp;RIGHT("   "&amp;G145,3)&amp;RIGHT("   "&amp;H145,3)&amp;RIGHT("    "&amp;F145,4)&amp;" "&amp;LEFT(J145&amp;"                            ",25)&amp;" " &amp;I145)</f>
+        <v>O   8 32  0  -6 O, CARBOXYLATE ANION      $([OD1][CD3][OD1])</v>
       </c>
       <c r="L145">
-        <v>1510</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B146" t="s">
         <v>24</v>
@@ -9407,7 +9410,7 @@
         <v>8</v>
       </c>
       <c r="D146" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E146">
         <f>VLOOKUP(G146,props!B:J,3,FALSE)</f>
@@ -9423,22 +9426,22 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="J146" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K146" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 32  0   0 NITRO-GROUP IN NITRATE    $([OD1][ND3]([OD1])[OD2])</v>
+        <f>IF(LEN(I146)&lt;2,"",LEFT(B146&amp;"  ",2)&amp;RIGHT("   "&amp;C146,3)&amp;RIGHT("   "&amp;G146,3)&amp;RIGHT("   "&amp;H146,3)&amp;RIGHT("    "&amp;F146,4)&amp;" "&amp;LEFT(J146&amp;"                            ",25)&amp;" " &amp;I146)</f>
+        <v>O   8 32  0   0 NITRO-GROUP OXYGEN        $([OD1][ND3]([#6])[OD1])</v>
       </c>
       <c r="L146">
-        <v>1520</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B147" t="s">
         <v>24</v>
@@ -9448,14 +9451,14 @@
         <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E147">
         <f>VLOOKUP(G147,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F147">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G147" s="5">
         <v>32</v>
@@ -9464,22 +9467,22 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="J147" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K147" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 32  0  -4 NITRATE ANION OXYGEN      $([OD1][ND3]([OD1])[OD1])</v>
+        <f>IF(LEN(I147)&lt;2,"",LEFT(B147&amp;"  ",2)&amp;RIGHT("   "&amp;C147,3)&amp;RIGHT("   "&amp;G147,3)&amp;RIGHT("   "&amp;H147,3)&amp;RIGHT("    "&amp;F147,4)&amp;" "&amp;LEFT(J147&amp;"                            ",25)&amp;" " &amp;I147)</f>
+        <v>O   8 32  0   0 NITRO-GROUP IN NITRATE    $([OD1][ND3]([OD1])[OD2])</v>
       </c>
       <c r="L147">
-        <v>1530</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B148" t="s">
         <v>24</v>
@@ -9489,14 +9492,14 @@
         <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E148">
         <f>VLOOKUP(G148,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G148" s="5">
         <v>32</v>
@@ -9505,22 +9508,22 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>674</v>
+        <v>602</v>
       </c>
       <c r="J148" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="K148" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 32  0   0 OXIDE ON NITROHGEN        [$([OD1]$([#7D3]=,:*)),$([OD1][#7D4])]</v>
+        <f>IF(LEN(I148)&lt;2,"",LEFT(B148&amp;"  ",2)&amp;RIGHT("   "&amp;C148,3)&amp;RIGHT("   "&amp;G148,3)&amp;RIGHT("   "&amp;H148,3)&amp;RIGHT("    "&amp;F148,4)&amp;" "&amp;LEFT(J148&amp;"                            ",25)&amp;" " &amp;I148)</f>
+        <v>O   8 32  0  -4 NITRATE ANION OXYGEN      $([OD1][ND3]([OD1])[OD1])</v>
       </c>
       <c r="L148">
-        <v>1540</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B149" t="s">
         <v>24</v>
@@ -9530,14 +9533,14 @@
         <v>8</v>
       </c>
       <c r="D149" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="E149">
         <f>VLOOKUP(G149,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F149">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G149" s="5">
         <v>32</v>
@@ -9546,22 +9549,22 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>605</v>
+        <v>674</v>
       </c>
       <c r="J149" t="s">
-        <v>606</v>
+        <v>236</v>
       </c>
       <c r="K149" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 32  0  -6 SO4(2-)                   $([OD1][SD4]([OD1])([OD1])[OD1])</v>
+        <f>IF(LEN(I149)&lt;2,"",LEFT(B149&amp;"  ",2)&amp;RIGHT("   "&amp;C149,3)&amp;RIGHT("   "&amp;G149,3)&amp;RIGHT("   "&amp;H149,3)&amp;RIGHT("    "&amp;F149,4)&amp;" "&amp;LEFT(J149&amp;"                            ",25)&amp;" " &amp;I149)</f>
+        <v>O   8 32  0   0 OXIDE ON NITROHGEN        [$([OD1]$([#7D3]=,:*)),$([OD1][#7D4])]</v>
       </c>
       <c r="L149">
-        <v>1550</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B150" t="s">
         <v>24</v>
@@ -9571,14 +9574,14 @@
         <v>8</v>
       </c>
       <c r="D150" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E150">
         <f>VLOOKUP(G150,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F150">
-        <v>-4</v>
+        <v>-6</v>
       </c>
       <c r="G150" s="5">
         <v>32</v>
@@ -9587,22 +9590,22 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>778</v>
+        <v>605</v>
       </c>
       <c r="J150" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K150" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 32  0  -4 SULFONATES, TERM OX ROSO3 $([OD1][SD4]([OD1])[OD1])</v>
+        <f>IF(LEN(I150)&lt;2,"",LEFT(B150&amp;"  ",2)&amp;RIGHT("   "&amp;C150,3)&amp;RIGHT("   "&amp;G150,3)&amp;RIGHT("   "&amp;H150,3)&amp;RIGHT("    "&amp;F150,4)&amp;" "&amp;LEFT(J150&amp;"                            ",25)&amp;" " &amp;I150)</f>
+        <v>O   8 32  0  -6 SO4(2-)                   $([OD1][SD4]([OD1])([OD1])[OD1])</v>
       </c>
       <c r="L150">
-        <v>1560</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B151" t="s">
         <v>24</v>
@@ -9612,14 +9615,14 @@
         <v>8</v>
       </c>
       <c r="D151" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E151">
         <f>VLOOKUP(G151,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G151" s="5">
         <v>32</v>
@@ -9628,22 +9631,22 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="J151" t="s">
-        <v>246</v>
+        <v>607</v>
       </c>
       <c r="K151" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 32  0   0 SULFONES, SULFONAMIDES    [$([OD1][SD4][OD1,ND2]),$([OD1][SD3]([OD1,ND2])=C)]</v>
+        <f>IF(LEN(I151)&lt;2,"",LEFT(B151&amp;"  ",2)&amp;RIGHT("   "&amp;C151,3)&amp;RIGHT("   "&amp;G151,3)&amp;RIGHT("   "&amp;H151,3)&amp;RIGHT("    "&amp;F151,4)&amp;" "&amp;LEFT(J151&amp;"                            ",25)&amp;" " &amp;I151)</f>
+        <v>O   8 32  0  -4 SULFONATES, TERM OX ROSO3 $([OD1][SD4]([OD1])[OD1])</v>
       </c>
       <c r="L151">
-        <v>1565</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B152" t="s">
         <v>24</v>
@@ -9653,14 +9656,14 @@
         <v>8</v>
       </c>
       <c r="D152" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E152">
         <f>VLOOKUP(G152,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F152">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G152" s="5">
         <v>32</v>
@@ -9669,22 +9672,22 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>677</v>
+        <v>777</v>
       </c>
       <c r="J152" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K152" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 32  0  -6 THIOSULFINATE O (-1/2)    $([OD1][SD3][OD1,SD1])</v>
+        <f>IF(LEN(I152)&lt;2,"",LEFT(B152&amp;"  ",2)&amp;RIGHT("   "&amp;C152,3)&amp;RIGHT("   "&amp;G152,3)&amp;RIGHT("   "&amp;H152,3)&amp;RIGHT("    "&amp;F152,4)&amp;" "&amp;LEFT(J152&amp;"                            ",25)&amp;" " &amp;I152)</f>
+        <v>O   8 32  0   0 SULFONES, SULFONAMIDES    [$([OD1][SD4][OD1,ND2]),$([OD1][SD3]([OD1,ND2])=C)]</v>
       </c>
       <c r="L152">
-        <v>1570</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B153" t="s">
         <v>24</v>
@@ -9694,14 +9697,14 @@
         <v>8</v>
       </c>
       <c r="D153" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E153">
         <f>VLOOKUP(G153,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="G153" s="5">
         <v>32</v>
@@ -9710,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="J153" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K153" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 32  0   0 SINGLE TERM O ON TET S    #$([OD1][#16])</v>
+        <f>IF(LEN(I153)&lt;2,"",LEFT(B153&amp;"  ",2)&amp;RIGHT("   "&amp;C153,3)&amp;RIGHT("   "&amp;G153,3)&amp;RIGHT("   "&amp;H153,3)&amp;RIGHT("    "&amp;F153,4)&amp;" "&amp;LEFT(J153&amp;"                            ",25)&amp;" " &amp;I153)</f>
+        <v>O   8 32  0  -6 THIOSULFINATE O (-1/2)    $([OD1][SD3][OD1,SD1])</v>
       </c>
       <c r="L153">
-        <v>1580</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B154" t="s">
         <v>24</v>
@@ -9735,14 +9738,14 @@
         <v>8</v>
       </c>
       <c r="D154" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E154">
         <f>VLOOKUP(G154,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F154">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G154" s="5">
         <v>32</v>
@@ -9751,22 +9754,22 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>783</v>
+        <v>676</v>
       </c>
       <c r="J154" t="s">
-        <v>625</v>
+        <v>244</v>
       </c>
       <c r="K154" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 32  0  -6 TERMINAL O, O2P GROUP (RO $([OD1][PD4]([OD1,SD1])([!$([OD1,SD1])])[!$([OD1,SD1])])</v>
+        <f>IF(LEN(I154)&lt;2,"",LEFT(B154&amp;"  ",2)&amp;RIGHT("   "&amp;C154,3)&amp;RIGHT("   "&amp;G154,3)&amp;RIGHT("   "&amp;H154,3)&amp;RIGHT("    "&amp;F154,4)&amp;" "&amp;LEFT(J154&amp;"                            ",25)&amp;" " &amp;I154)</f>
+        <v>O   8 32  0   0 SINGLE TERM O ON TET S    #$([OD1][#16])</v>
       </c>
       <c r="L154">
-        <v>1600</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B155" t="s">
         <v>24</v>
@@ -9776,14 +9779,14 @@
         <v>8</v>
       </c>
       <c r="D155" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E155">
         <f>VLOOKUP(G155,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F155">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="G155" s="5">
         <v>32</v>
@@ -9792,22 +9795,22 @@
         <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="J155" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="K155" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 32  0  -8 TERMINAL O, O3P GROUP ROP $([OD1][PD4]([OD1])([OD1])[OD2,SD2])</v>
+        <f>IF(LEN(I155)&lt;2,"",LEFT(B155&amp;"  ",2)&amp;RIGHT("   "&amp;C155,3)&amp;RIGHT("   "&amp;G155,3)&amp;RIGHT("   "&amp;H155,3)&amp;RIGHT("    "&amp;F155,4)&amp;" "&amp;LEFT(J155&amp;"                            ",25)&amp;" " &amp;I155)</f>
+        <v>O   8 32  0  -6 TERMINAL O, O2P GROUP (RO $([OD1][PD4]([OD1,SD1])([!$([OD1,SD1])])[!$([OD1,SD1])])</v>
       </c>
       <c r="L155">
-        <v>1610</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B156" t="s">
         <v>24</v>
@@ -9817,14 +9820,14 @@
         <v>8</v>
       </c>
       <c r="D156" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E156">
         <f>VLOOKUP(G156,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F156">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="G156" s="5">
         <v>32</v>
@@ -9833,22 +9836,22 @@
         <v>0</v>
       </c>
       <c r="I156" t="s">
-        <v>604</v>
+        <v>782</v>
       </c>
       <c r="J156" t="s">
-        <v>256</v>
+        <v>624</v>
       </c>
       <c r="K156" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 32  0  -9 TERMINAL O, PO4(-3)       $([OD1][PD4]([OD1])([OD1])[OD1])</v>
+        <f>IF(LEN(I156)&lt;2,"",LEFT(B156&amp;"  ",2)&amp;RIGHT("   "&amp;C156,3)&amp;RIGHT("   "&amp;G156,3)&amp;RIGHT("   "&amp;H156,3)&amp;RIGHT("    "&amp;F156,4)&amp;" "&amp;LEFT(J156&amp;"                            ",25)&amp;" " &amp;I156)</f>
+        <v>O   8 32  0  -8 TERMINAL O, O3P GROUP ROP $([OD1][PD4]([OD1])([OD1])[OD2,SD2])</v>
       </c>
       <c r="L156">
-        <v>1620</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B157" t="s">
         <v>24</v>
@@ -9858,14 +9861,14 @@
         <v>8</v>
       </c>
       <c r="D157" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E157">
         <f>VLOOKUP(G157,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="G157" s="5">
         <v>32</v>
@@ -9874,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="J157" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K157" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 32  0   0 TERMINAL O, O-P           $([OD1][#15])</v>
+        <f>IF(LEN(I157)&lt;2,"",LEFT(B157&amp;"  ",2)&amp;RIGHT("   "&amp;C157,3)&amp;RIGHT("   "&amp;G157,3)&amp;RIGHT("   "&amp;H157,3)&amp;RIGHT("    "&amp;F157,4)&amp;" "&amp;LEFT(J157&amp;"                            ",25)&amp;" " &amp;I157)</f>
+        <v>O   8 32  0  -9 TERMINAL O, PO4(-3)       $([OD1][PD4]([OD1])([OD1])[OD1])</v>
       </c>
       <c r="L157">
-        <v>1630</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B158" t="s">
         <v>24</v>
@@ -9899,14 +9902,14 @@
         <v>8</v>
       </c>
       <c r="D158" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E158">
         <f>VLOOKUP(G158,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F158">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G158" s="5">
         <v>32</v>
@@ -9915,22 +9918,22 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>603</v>
+        <v>627</v>
       </c>
       <c r="J158" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="K158" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 32  0  -3 TERMINAL O IN CLO4(-)     $([OD1][ClD4]([OD1])([OD1])[OD1])</v>
+        <f>IF(LEN(I158)&lt;2,"",LEFT(B158&amp;"  ",2)&amp;RIGHT("   "&amp;C158,3)&amp;RIGHT("   "&amp;G158,3)&amp;RIGHT("   "&amp;H158,3)&amp;RIGHT("    "&amp;F158,4)&amp;" "&amp;LEFT(J158&amp;"                            ",25)&amp;" " &amp;I158)</f>
+        <v>O   8 32  0   0 TERMINAL O, O-P           $([OD1][#15])</v>
       </c>
       <c r="L158">
-        <v>1640</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="B159" t="s">
         <v>24</v>
@@ -9940,38 +9943,38 @@
         <v>8</v>
       </c>
       <c r="D159" t="s">
-        <v>147</v>
+        <v>257</v>
       </c>
       <c r="E159">
         <f>VLOOKUP(G159,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F159">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G159" s="5">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="H159" s="5">
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>385</v>
+        <v>603</v>
       </c>
       <c r="J159" t="s">
-        <v>148</v>
+        <v>258</v>
       </c>
       <c r="K159" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8  7  0   0 O=C, GENERIC              $([#8D1]=[#6,#7,#16])</v>
+        <f>IF(LEN(I159)&lt;2,"",LEFT(B159&amp;"  ",2)&amp;RIGHT("   "&amp;C159,3)&amp;RIGHT("   "&amp;G159,3)&amp;RIGHT("   "&amp;H159,3)&amp;RIGHT("    "&amp;F159,4)&amp;" "&amp;LEFT(J159&amp;"                            ",25)&amp;" " &amp;I159)</f>
+        <v>O   8 32  0  -3 TERMINAL O IN CLO4(-)     $([OD1][ClD4]([OD1])([OD1])[OD1])</v>
       </c>
       <c r="L159">
-        <v>1650</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B160" t="s">
         <v>24</v>
@@ -9981,7 +9984,7 @@
         <v>8</v>
       </c>
       <c r="D160" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E160">
         <f>VLOOKUP(G160,props!B:J,3,FALSE)</f>
@@ -9997,22 +10000,22 @@
         <v>0</v>
       </c>
       <c r="I160" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="J160" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K160" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(LEN(I160)&lt;2,"",LEFT(B160&amp;"  ",2)&amp;RIGHT("   "&amp;C160,3)&amp;RIGHT("   "&amp;G160,3)&amp;RIGHT("   "&amp;H160,3)&amp;RIGHT("    "&amp;F160,4)&amp;" "&amp;LEFT(J160&amp;"                            ",25)&amp;" " &amp;I160)</f>
+        <v>O   8  7  0   0 O=C, GENERIC              $([#8D1]=[#6,#7,#16])</v>
       </c>
       <c r="L160">
-        <v>1660</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B161" t="s">
         <v>24</v>
@@ -10022,7 +10025,7 @@
         <v>8</v>
       </c>
       <c r="D161" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E161">
         <f>VLOOKUP(G161,props!B:J,3,FALSE)</f>
@@ -10041,19 +10044,19 @@
         <v>364</v>
       </c>
       <c r="J161" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K161" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I161)&lt;2,"",LEFT(B161&amp;"  ",2)&amp;RIGHT("   "&amp;C161,3)&amp;RIGHT("   "&amp;G161,3)&amp;RIGHT("   "&amp;H161,3)&amp;RIGHT("    "&amp;F161,4)&amp;" "&amp;LEFT(J161&amp;"                            ",25)&amp;" " &amp;I161)</f>
         <v/>
       </c>
       <c r="L161">
-        <v>1670</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B162" t="s">
         <v>24</v>
@@ -10063,7 +10066,7 @@
         <v>8</v>
       </c>
       <c r="D162" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E162">
         <f>VLOOKUP(G162,props!B:J,3,FALSE)</f>
@@ -10082,19 +10085,19 @@
         <v>364</v>
       </c>
       <c r="J162" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K162" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I162)&lt;2,"",LEFT(B162&amp;"  ",2)&amp;RIGHT("   "&amp;C162,3)&amp;RIGHT("   "&amp;G162,3)&amp;RIGHT("   "&amp;H162,3)&amp;RIGHT("    "&amp;F162,4)&amp;" "&amp;LEFT(J162&amp;"                            ",25)&amp;" " &amp;I162)</f>
         <v/>
       </c>
       <c r="L162">
-        <v>1680</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B163" t="s">
         <v>24</v>
@@ -10104,7 +10107,7 @@
         <v>8</v>
       </c>
       <c r="D163" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E163">
         <f>VLOOKUP(G163,props!B:J,3,FALSE)</f>
@@ -10123,19 +10126,19 @@
         <v>364</v>
       </c>
       <c r="J163" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K163" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I163)&lt;2,"",LEFT(B163&amp;"  ",2)&amp;RIGHT("   "&amp;C163,3)&amp;RIGHT("   "&amp;G163,3)&amp;RIGHT("   "&amp;H163,3)&amp;RIGHT("    "&amp;F163,4)&amp;" "&amp;LEFT(J163&amp;"                            ",25)&amp;" " &amp;I163)</f>
         <v/>
       </c>
       <c r="L163">
-        <v>1690</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B164" t="s">
         <v>24</v>
@@ -10145,7 +10148,7 @@
         <v>8</v>
       </c>
       <c r="D164" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E164">
         <f>VLOOKUP(G164,props!B:J,3,FALSE)</f>
@@ -10164,19 +10167,19 @@
         <v>364</v>
       </c>
       <c r="J164" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K164" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(LEN(I164)&lt;2,"",LEFT(B164&amp;"  ",2)&amp;RIGHT("   "&amp;C164,3)&amp;RIGHT("   "&amp;G164,3)&amp;RIGHT("   "&amp;H164,3)&amp;RIGHT("    "&amp;F164,4)&amp;" "&amp;LEFT(J164&amp;"                            ",25)&amp;" " &amp;I164)</f>
         <v/>
       </c>
       <c r="L164">
-        <v>1700</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="B165" t="s">
         <v>24</v>
@@ -10186,38 +10189,38 @@
         <v>8</v>
       </c>
       <c r="D165" t="s">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="E165">
         <f>VLOOKUP(G165,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F165">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="G165" s="5">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="H165" s="5">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>658</v>
+        <v>364</v>
       </c>
       <c r="J165" t="s">
-        <v>812</v>
+        <v>158</v>
       </c>
       <c r="K165" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v>O   8 35 21 -12 RO- or HO-                [OD1]</v>
+        <f>IF(LEN(I165)&lt;2,"",LEFT(B165&amp;"  ",2)&amp;RIGHT("   "&amp;C165,3)&amp;RIGHT("   "&amp;G165,3)&amp;RIGHT("   "&amp;H165,3)&amp;RIGHT("    "&amp;F165,4)&amp;" "&amp;LEFT(J165&amp;"                            ",25)&amp;" " &amp;I165)</f>
+        <v/>
       </c>
       <c r="L165">
-        <v>1710</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B166" t="s">
         <v>24</v>
@@ -10227,7 +10230,7 @@
         <v>8</v>
       </c>
       <c r="D166" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="E166">
         <f>VLOOKUP(G166,props!B:J,3,FALSE)</f>
@@ -10243,237 +10246,237 @@
         <v>21</v>
       </c>
       <c r="I166" t="s">
-        <v>364</v>
+        <v>658</v>
       </c>
       <c r="J166" t="s">
-        <v>262</v>
+        <v>811</v>
       </c>
       <c r="K166" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <f>IF(LEN(I166)&lt;2,"",LEFT(B166&amp;"  ",2)&amp;RIGHT("   "&amp;C166,3)&amp;RIGHT("   "&amp;G166,3)&amp;RIGHT("   "&amp;H166,3)&amp;RIGHT("    "&amp;F166,4)&amp;" "&amp;LEFT(J166&amp;"                            ",25)&amp;" " &amp;I166)</f>
+        <v>O   8 35 21 -12 RO- or HO-                [OD1]</v>
       </c>
       <c r="L166">
-        <v>1720</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="B167" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="C167">
         <f>VLOOKUP(B167,elemno!A:B,2,FALSE)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D167" t="s">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="E167">
         <f>VLOOKUP(G167,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="G167" s="5">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="H167" s="5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I167" t="s">
-        <v>615</v>
+        <v>364</v>
       </c>
       <c r="J167" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="K167" s="7" t="str">
-        <f t="shared" ref="K167:K209" si="3">IF(LEN(I167)&lt;2,"",LEFT(B167&amp;"  ",2)&amp;RIGHT("   "&amp;C167,3)&amp;RIGHT("   "&amp;G167,3)&amp;RIGHT("   "&amp;H167,3)&amp;RIGHT("    "&amp;F167,4)&amp;" "&amp;LEFT(J167&amp;"                            ",25)&amp;" " &amp;I167)</f>
-        <v>F   9 11  0   0 FLUORINE                  [FD1]</v>
+        <f>IF(LEN(I167)&lt;2,"",LEFT(B167&amp;"  ",2)&amp;RIGHT("   "&amp;C167,3)&amp;RIGHT("   "&amp;G167,3)&amp;RIGHT("   "&amp;H167,3)&amp;RIGHT("    "&amp;F167,4)&amp;" "&amp;LEFT(J167&amp;"                            ",25)&amp;" " &amp;I167)</f>
+        <v/>
       </c>
       <c r="L167">
-        <v>1740</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>176</v>
+        <v>48</v>
       </c>
       <c r="B168" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C168">
         <f>VLOOKUP(B168,elemno!A:B,2,FALSE)</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="E168">
         <f>VLOOKUP(G168,props!B:J,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G168" s="5">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="H168" s="5">
         <v>0</v>
       </c>
       <c r="I168" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="J168" t="s">
-        <v>344</v>
+        <v>171</v>
       </c>
       <c r="K168" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Na 11 93  0  12 SODIUM CATION             [NaD0]</v>
+        <f>IF(LEN(I168)&lt;2,"",LEFT(B168&amp;"  ",2)&amp;RIGHT("   "&amp;C168,3)&amp;RIGHT("   "&amp;G168,3)&amp;RIGHT("   "&amp;H168,3)&amp;RIGHT("    "&amp;F168,4)&amp;" "&amp;LEFT(J168&amp;"                            ",25)&amp;" " &amp;I168)</f>
+        <v>F   9 11  0   0 FLUORINE                  [FD1]</v>
       </c>
       <c r="L168">
-        <v>1750</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C169">
         <f>VLOOKUP(B169,elemno!A:B,2,FALSE)</f>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="E169">
         <f>VLOOKUP(G169,props!B:J,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F169">
-        <v>24</v>
+        <v>-12</v>
       </c>
       <c r="G169" s="5">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="H169" s="5">
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="J169" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="K169" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Mg 12 99  0  24 DIPOSITIVE MAGNESIUM CATI [MgD0]</v>
+        <f>IF(LEN(I169)&lt;2,"",LEFT(B169&amp;"  ",2)&amp;RIGHT("   "&amp;C169,3)&amp;RIGHT("   "&amp;G169,3)&amp;RIGHT("   "&amp;H169,3)&amp;RIGHT("    "&amp;F169,4)&amp;" "&amp;LEFT(J169&amp;"                            ",25)&amp;" " &amp;I169)</f>
+        <v>F   9 89  0 -12 FLUORIDE ANION            [FD0]</v>
       </c>
       <c r="L169">
-        <v>1760</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>60</v>
+        <v>176</v>
       </c>
       <c r="B170" t="s">
-        <v>668</v>
+        <v>77</v>
       </c>
       <c r="C170">
         <f>VLOOKUP(B170,elemno!A:B,2,FALSE)</f>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D170" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E170">
         <f>VLOOKUP(G170,props!B:J,3,FALSE)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G170" s="5">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="H170" s="5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>387</v>
+        <v>623</v>
       </c>
       <c r="J170" t="s">
-        <v>186</v>
+        <v>344</v>
       </c>
       <c r="K170" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Si 14 19  5   0 SILICON                   [SiD4]</v>
+        <f>IF(LEN(I170)&lt;2,"",LEFT(B170&amp;"  ",2)&amp;RIGHT("   "&amp;C170,3)&amp;RIGHT("   "&amp;G170,3)&amp;RIGHT("   "&amp;H170,3)&amp;RIGHT("    "&amp;F170,4)&amp;" "&amp;LEFT(J170&amp;"                            ",25)&amp;" " &amp;I170)</f>
+        <v>Na 11 93  0  12 SODIUM CATION             [NaD0]</v>
       </c>
       <c r="L170">
-        <v>1770</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>75</v>
+        <v>183</v>
       </c>
       <c r="B171" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C171">
         <f>VLOOKUP(B171,elemno!A:B,2,FALSE)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D171" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="E171">
         <f>VLOOKUP(G171,props!B:J,3,FALSE)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G171" s="5">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="H171" s="5">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>370</v>
+        <v>619</v>
       </c>
       <c r="J171" t="s">
-        <v>209</v>
+        <v>351</v>
       </c>
       <c r="K171" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>P  15 25 71   0 GENERAL TETRACRD P        [PD4]</v>
+        <f>IF(LEN(I171)&lt;2,"",LEFT(B171&amp;"  ",2)&amp;RIGHT("   "&amp;C171,3)&amp;RIGHT("   "&amp;G171,3)&amp;RIGHT("   "&amp;H171,3)&amp;RIGHT("    "&amp;F171,4)&amp;" "&amp;LEFT(J171&amp;"                            ",25)&amp;" " &amp;I171)</f>
+        <v>Mg 12 99  0  24 DIPOSITIVE MAGNESIUM CATI [MgD0]</v>
       </c>
       <c r="L171">
-        <v>1790</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B172" t="s">
-        <v>59</v>
+        <v>668</v>
       </c>
       <c r="C172">
         <f>VLOOKUP(B172,elemno!A:B,2,FALSE)</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>202</v>
+        <v>67</v>
       </c>
       <c r="E172">
         <f>VLOOKUP(G172,props!B:J,3,FALSE)</f>
@@ -10483,28 +10486,28 @@
         <v>0</v>
       </c>
       <c r="G172" s="5">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H172" s="5">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="I172" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="J172" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="K172" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(LEN(I172)&lt;2,"",LEFT(B172&amp;"  ",2)&amp;RIGHT("   "&amp;C172,3)&amp;RIGHT("   "&amp;G172,3)&amp;RIGHT("   "&amp;H172,3)&amp;RIGHT("    "&amp;F172,4)&amp;" "&amp;LEFT(J172&amp;"                            ",25)&amp;" " &amp;I172)</f>
+        <v>Si 14 19  5   0 SILICON                   [SiD4]</v>
       </c>
       <c r="L172">
-        <v>1800</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B173" t="s">
         <v>59</v>
@@ -10514,7 +10517,7 @@
         <v>15</v>
       </c>
       <c r="D173" t="s">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="E173">
         <f>VLOOKUP(G173,props!B:J,3,FALSE)</f>
@@ -10530,22 +10533,22 @@
         <v>71</v>
       </c>
       <c r="I173" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="J173" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K173" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(LEN(I173)&lt;2,"",LEFT(B173&amp;"  ",2)&amp;RIGHT("   "&amp;C173,3)&amp;RIGHT("   "&amp;G173,3)&amp;RIGHT("   "&amp;H173,3)&amp;RIGHT("    "&amp;F173,4)&amp;" "&amp;LEFT(J173&amp;"                            ",25)&amp;" " &amp;I173)</f>
+        <v>P  15 25 71   0 GENERAL TETRACRD P        [PD4]</v>
       </c>
       <c r="L173">
-        <v>1810</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B174" t="s">
         <v>59</v>
@@ -10555,7 +10558,7 @@
         <v>15</v>
       </c>
       <c r="D174" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E174">
         <f>VLOOKUP(G174,props!B:J,3,FALSE)</f>
@@ -10574,19 +10577,19 @@
         <v>364</v>
       </c>
       <c r="J174" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K174" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(LEN(I174)&lt;2,"",LEFT(B174&amp;"  ",2)&amp;RIGHT("   "&amp;C174,3)&amp;RIGHT("   "&amp;G174,3)&amp;RIGHT("   "&amp;H174,3)&amp;RIGHT("    "&amp;F174,4)&amp;" "&amp;LEFT(J174&amp;"                            ",25)&amp;" " &amp;I174)</f>
         <v/>
       </c>
       <c r="L174">
-        <v>1820</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B175" t="s">
         <v>59</v>
@@ -10596,7 +10599,7 @@
         <v>15</v>
       </c>
       <c r="D175" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E175">
         <f>VLOOKUP(G175,props!B:J,3,FALSE)</f>
@@ -10615,19 +10618,19 @@
         <v>364</v>
       </c>
       <c r="J175" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K175" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(LEN(I175)&lt;2,"",LEFT(B175&amp;"  ",2)&amp;RIGHT("   "&amp;C175,3)&amp;RIGHT("   "&amp;G175,3)&amp;RIGHT("   "&amp;H175,3)&amp;RIGHT("    "&amp;F175,4)&amp;" "&amp;LEFT(J175&amp;"                            ",25)&amp;" " &amp;I175)</f>
         <v/>
       </c>
       <c r="L175">
-        <v>1830</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B176" t="s">
         <v>59</v>
@@ -10637,38 +10640,38 @@
         <v>15</v>
       </c>
       <c r="D176" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
       <c r="E176">
         <f>VLOOKUP(G176,props!B:J,3,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F176">
         <v>0</v>
       </c>
       <c r="G176" s="5">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H176" s="5">
         <v>71</v>
       </c>
       <c r="I176" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="J176" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K176" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>P  15 26 71   0 TRICOORDINATE P           [PD3]</v>
+        <f>IF(LEN(I176)&lt;2,"",LEFT(B176&amp;"  ",2)&amp;RIGHT("   "&amp;C176,3)&amp;RIGHT("   "&amp;G176,3)&amp;RIGHT("   "&amp;H176,3)&amp;RIGHT("    "&amp;F176,4)&amp;" "&amp;LEFT(J176&amp;"                            ",25)&amp;" " &amp;I176)</f>
+        <v/>
       </c>
       <c r="L176">
-        <v>1840</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="B177" t="s">
         <v>59</v>
@@ -10678,120 +10681,120 @@
         <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>60</v>
+        <v>208</v>
       </c>
       <c r="E177">
         <f>VLOOKUP(G177,props!B:J,3,FALSE)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F177">
         <v>0</v>
       </c>
       <c r="G177" s="5">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H177" s="5">
         <v>71</v>
       </c>
       <c r="I177" t="s">
-        <v>672</v>
+        <v>364</v>
       </c>
       <c r="J177" t="s">
-        <v>327</v>
+        <v>207</v>
       </c>
       <c r="K177" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>P  15 75 71   0 P DOUBLY BONDED TO C      $([PD2]=C)</v>
+        <f>IF(LEN(I177)&lt;2,"",LEFT(B177&amp;"  ",2)&amp;RIGHT("   "&amp;C177,3)&amp;RIGHT("   "&amp;G177,3)&amp;RIGHT("   "&amp;H177,3)&amp;RIGHT("    "&amp;F177,4)&amp;" "&amp;LEFT(J177&amp;"                            ",25)&amp;" " &amp;I177)</f>
+        <v/>
       </c>
       <c r="L177">
-        <v>1850</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="B178" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C178">
         <f>VLOOKUP(B178,elemno!A:B,2,FALSE)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D178" t="s">
-        <v>179</v>
+        <v>59</v>
       </c>
       <c r="E178">
         <f>VLOOKUP(G178,props!B:J,3,FALSE)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F178">
         <v>0</v>
       </c>
       <c r="G178" s="5">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H178" s="5">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I178" t="s">
-        <v>673</v>
+        <v>371</v>
       </c>
       <c r="J178" t="s">
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="K178" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S  16 18  0   0 SULFONAMIDE S             [$([SD4]([OD1,ND2])[OD1,ND2]),$([SD3](=C)([OD1,ND2])[OD1,ND2])]</v>
+        <f>IF(LEN(I178)&lt;2,"",LEFT(B178&amp;"  ",2)&amp;RIGHT("   "&amp;C178,3)&amp;RIGHT("   "&amp;G178,3)&amp;RIGHT("   "&amp;H178,3)&amp;RIGHT("    "&amp;F178,4)&amp;" "&amp;LEFT(J178&amp;"                            ",25)&amp;" " &amp;I178)</f>
+        <v>P  15 26 71   0 TRICOORDINATE P           [PD3]</v>
       </c>
       <c r="L178">
-        <v>1870</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="B179" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C179">
         <f>VLOOKUP(B179,elemno!A:B,2,FALSE)</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D179" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E179">
         <f>VLOOKUP(G179,props!B:J,3,FALSE)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F179">
         <v>0</v>
       </c>
       <c r="G179" s="5">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="H179" s="5">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I179" t="s">
-        <v>364</v>
+        <v>672</v>
       </c>
       <c r="J179" t="s">
-        <v>178</v>
+        <v>327</v>
       </c>
       <c r="K179" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(LEN(I179)&lt;2,"",LEFT(B179&amp;"  ",2)&amp;RIGHT("   "&amp;C179,3)&amp;RIGHT("   "&amp;G179,3)&amp;RIGHT("   "&amp;H179,3)&amp;RIGHT("    "&amp;F179,4)&amp;" "&amp;LEFT(J179&amp;"                            ",25)&amp;" " &amp;I179)</f>
+        <v>P  15 75 71   0 P DOUBLY BONDED TO C      $([PD2]=C)</v>
       </c>
       <c r="L179">
-        <v>1880</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B180" t="s">
         <v>54</v>
@@ -10801,7 +10804,7 @@
         <v>16</v>
       </c>
       <c r="D180" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E180">
         <f>VLOOKUP(G180,props!B:J,3,FALSE)</f>
@@ -10817,22 +10820,22 @@
         <v>0</v>
       </c>
       <c r="I180" t="s">
-        <v>364</v>
+        <v>673</v>
       </c>
       <c r="J180" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K180" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(LEN(I180)&lt;2,"",LEFT(B180&amp;"  ",2)&amp;RIGHT("   "&amp;C180,3)&amp;RIGHT("   "&amp;G180,3)&amp;RIGHT("   "&amp;H180,3)&amp;RIGHT("    "&amp;F180,4)&amp;" "&amp;LEFT(J180&amp;"                            ",25)&amp;" " &amp;I180)</f>
+        <v>S  16 18  0   0 SULFONAMIDE S             [$([SD4]([OD1,ND2])[OD1,ND2]),$([SD3](=C)([OD1,ND2])[OD1,ND2])]</v>
       </c>
       <c r="L180">
-        <v>1890</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B181" t="s">
         <v>54</v>
@@ -10841,8 +10844,8 @@
         <f>VLOOKUP(B181,elemno!A:B,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>354</v>
+      <c r="D181" t="s">
+        <v>56</v>
       </c>
       <c r="E181">
         <f>VLOOKUP(G181,props!B:J,3,FALSE)</f>
@@ -10861,19 +10864,19 @@
         <v>364</v>
       </c>
       <c r="J181" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K181" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(LEN(I181)&lt;2,"",LEFT(B181&amp;"  ",2)&amp;RIGHT("   "&amp;C181,3)&amp;RIGHT("   "&amp;G181,3)&amp;RIGHT("   "&amp;H181,3)&amp;RIGHT("    "&amp;F181,4)&amp;" "&amp;LEFT(J181&amp;"                            ",25)&amp;" " &amp;I181)</f>
         <v/>
       </c>
       <c r="L181">
-        <v>1900</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B182" t="s">
         <v>54</v>
@@ -10883,7 +10886,7 @@
         <v>16</v>
       </c>
       <c r="D182" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E182">
         <f>VLOOKUP(G182,props!B:J,3,FALSE)</f>
@@ -10902,19 +10905,19 @@
         <v>364</v>
       </c>
       <c r="J182" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K182" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(LEN(I182)&lt;2,"",LEFT(B182&amp;"  ",2)&amp;RIGHT("   "&amp;C182,3)&amp;RIGHT("   "&amp;G182,3)&amp;RIGHT("   "&amp;H182,3)&amp;RIGHT("    "&amp;F182,4)&amp;" "&amp;LEFT(J182&amp;"                            ",25)&amp;" " &amp;I182)</f>
         <v/>
       </c>
       <c r="L182">
-        <v>1910</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B183" t="s">
         <v>54</v>
@@ -10923,39 +10926,39 @@
         <f>VLOOKUP(B183,elemno!A:B,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="D183" t="s">
-        <v>177</v>
+      <c r="D183" s="1" t="s">
+        <v>354</v>
       </c>
       <c r="E183">
         <f>VLOOKUP(G183,props!B:J,3,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F183">
         <v>0</v>
       </c>
       <c r="G183" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H183" s="5">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I183" t="s">
-        <v>671</v>
+        <v>364</v>
       </c>
       <c r="J183" t="s">
-        <v>670</v>
+        <v>183</v>
       </c>
       <c r="K183" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S  16 17 71   0 SULFOXIDE S (also S(=O)[N $([SD3]([OD1,ND2])([#6,#7D3,#8D2])[#6,#7D3,#8D2])</v>
+        <f>IF(LEN(I183)&lt;2,"",LEFT(B183&amp;"  ",2)&amp;RIGHT("   "&amp;C183,3)&amp;RIGHT("   "&amp;G183,3)&amp;RIGHT("   "&amp;H183,3)&amp;RIGHT("    "&amp;F183,4)&amp;" "&amp;LEFT(J183&amp;"                            ",25)&amp;" " &amp;I183)</f>
+        <v/>
       </c>
       <c r="L183">
-        <v>1930</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="B184" t="s">
         <v>54</v>
@@ -10965,38 +10968,38 @@
         <v>16</v>
       </c>
       <c r="D184" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="E184">
         <f>VLOOKUP(G184,props!B:J,3,FALSE)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="G184" s="5">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="H184" s="5">
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>665</v>
+        <v>364</v>
       </c>
       <c r="J184" t="s">
-        <v>323</v>
+        <v>185</v>
       </c>
       <c r="K184" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S  16 73  0   0 SULFUR IN SULFINATE       $([SD3]([OD1,SD1])[OD1])</v>
+        <f>IF(LEN(I184)&lt;2,"",LEFT(B184&amp;"  ",2)&amp;RIGHT("   "&amp;C184,3)&amp;RIGHT("   "&amp;G184,3)&amp;RIGHT("   "&amp;H184,3)&amp;RIGHT("    "&amp;F184,4)&amp;" "&amp;LEFT(J184&amp;"                            ",25)&amp;" " &amp;I184)</f>
+        <v/>
       </c>
       <c r="L184">
-        <v>1940</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="B185" t="s">
         <v>54</v>
@@ -11006,7 +11009,7 @@
         <v>16</v>
       </c>
       <c r="D185" t="s">
-        <v>324</v>
+        <v>177</v>
       </c>
       <c r="E185">
         <f>VLOOKUP(G185,props!B:J,3,FALSE)</f>
@@ -11016,28 +11019,28 @@
         <v>0</v>
       </c>
       <c r="G185" s="5">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="H185" s="5">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I185" t="s">
-        <v>364</v>
+        <v>671</v>
       </c>
       <c r="J185" t="s">
-        <v>325</v>
+        <v>670</v>
       </c>
       <c r="K185" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(LEN(I185)&lt;2,"",LEFT(B185&amp;"  ",2)&amp;RIGHT("   "&amp;C185,3)&amp;RIGHT("   "&amp;G185,3)&amp;RIGHT("   "&amp;H185,3)&amp;RIGHT("    "&amp;F185,4)&amp;" "&amp;LEFT(J185&amp;"                            ",25)&amp;" " &amp;I185)</f>
+        <v>S  16 17 71   0 SULFOXIDE S (also S(=O)[N $([SD3]([OD1,ND2])([#6,#7D3,#8D2])[#6,#7D3,#8D2])</v>
       </c>
       <c r="L185">
-        <v>1950</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="B186" t="s">
         <v>54</v>
@@ -11047,38 +11050,38 @@
         <v>16</v>
       </c>
       <c r="D186" t="s">
-        <v>283</v>
+        <v>57</v>
       </c>
       <c r="E186">
         <f>VLOOKUP(G186,props!B:J,3,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F186">
         <v>0</v>
       </c>
       <c r="G186" s="5">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="H186" s="5">
         <v>0</v>
       </c>
       <c r="I186" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="J186" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="K186" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S  16 44  0   0 S IN THIOPHENE            [sD2r500]</v>
+        <f>IF(LEN(I186)&lt;2,"",LEFT(B186&amp;"  ",2)&amp;RIGHT("   "&amp;C186,3)&amp;RIGHT("   "&amp;G186,3)&amp;RIGHT("   "&amp;H186,3)&amp;RIGHT("    "&amp;F186,4)&amp;" "&amp;LEFT(J186&amp;"                            ",25)&amp;" " &amp;I186)</f>
+        <v>S  16 73  0   0 SULFUR IN SULFINATE       $([SD3]([OD1,SD1])[OD1])</v>
       </c>
       <c r="L186">
-        <v>1970</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="B187" t="s">
         <v>54</v>
@@ -11088,38 +11091,38 @@
         <v>16</v>
       </c>
       <c r="D187" t="s">
-        <v>54</v>
+        <v>324</v>
       </c>
       <c r="E187">
         <f>VLOOKUP(G187,props!B:J,3,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F187">
         <v>0</v>
       </c>
       <c r="G187" s="5">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="H187" s="5">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="J187" t="s">
-        <v>175</v>
+        <v>325</v>
       </c>
       <c r="K187" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S  16 15 71   0 THIOL, SULFIDE            $([SD2](-*)-*)</v>
+        <f>IF(LEN(I187)&lt;2,"",LEFT(B187&amp;"  ",2)&amp;RIGHT("   "&amp;C187,3)&amp;RIGHT("   "&amp;G187,3)&amp;RIGHT("   "&amp;H187,3)&amp;RIGHT("    "&amp;F187,4)&amp;" "&amp;LEFT(J187&amp;"                            ",25)&amp;" " &amp;I187)</f>
+        <v/>
       </c>
       <c r="L187">
-        <v>1980</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B188" t="s">
         <v>54</v>
@@ -11128,8 +11131,8 @@
         <f>VLOOKUP(B188,elemno!A:B,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>355</v>
+      <c r="D188" t="s">
+        <v>283</v>
       </c>
       <c r="E188">
         <f>VLOOKUP(G188,props!B:J,3,FALSE)</f>
@@ -11139,28 +11142,28 @@
         <v>0</v>
       </c>
       <c r="G188" s="5">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="H188" s="5">
         <v>0</v>
       </c>
       <c r="I188" t="s">
-        <v>664</v>
+        <v>687</v>
       </c>
       <c r="J188" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="K188" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S  16 74  0   0 SULFINYL SULFUR, C=S=O    $([SD2]([CD3])[OD1])</v>
+        <f>IF(LEN(I188)&lt;2,"",LEFT(B188&amp;"  ",2)&amp;RIGHT("   "&amp;C188,3)&amp;RIGHT("   "&amp;G188,3)&amp;RIGHT("   "&amp;H188,3)&amp;RIGHT("    "&amp;F188,4)&amp;" "&amp;LEFT(J188&amp;"                            ",25)&amp;" " &amp;I188)</f>
+        <v>S  16 44  0   0 S IN THIOPHENE            [sD2r500]</v>
       </c>
       <c r="L188">
-        <v>1990</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="B189" t="s">
         <v>54</v>
@@ -11170,38 +11173,38 @@
         <v>16</v>
       </c>
       <c r="D189" t="s">
-        <v>316</v>
+        <v>54</v>
       </c>
       <c r="E189">
         <f>VLOOKUP(G189,props!B:J,3,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F189">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G189" s="5">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="H189" s="5">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I189" t="s">
-        <v>667</v>
+        <v>369</v>
       </c>
       <c r="J189" t="s">
-        <v>317</v>
+        <v>175</v>
       </c>
       <c r="K189" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S  16 72  0  -6 THIOCARBOXYLATE S         $([SD1][CD3][SD1])</v>
+        <f>IF(LEN(I189)&lt;2,"",LEFT(B189&amp;"  ",2)&amp;RIGHT("   "&amp;C189,3)&amp;RIGHT("   "&amp;G189,3)&amp;RIGHT("   "&amp;H189,3)&amp;RIGHT("    "&amp;F189,4)&amp;" "&amp;LEFT(J189&amp;"                            ",25)&amp;" " &amp;I189)</f>
+        <v>S  16 15 71   0 THIOL, SULFIDE            $([SD2](-*)-*)</v>
       </c>
       <c r="L189">
-        <v>2010</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B190" t="s">
         <v>54</v>
@@ -11210,39 +11213,39 @@
         <f>VLOOKUP(B190,elemno!A:B,2,FALSE)</f>
         <v>16</v>
       </c>
-      <c r="D190" t="s">
-        <v>321</v>
+      <c r="D190" s="1" t="s">
+        <v>355</v>
       </c>
       <c r="E190">
         <f>VLOOKUP(G190,props!B:J,3,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F190">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G190" s="5">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H190" s="5">
         <v>0</v>
       </c>
       <c r="I190" t="s">
-        <v>364</v>
+        <v>664</v>
       </c>
       <c r="J190" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="K190" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(LEN(I190)&lt;2,"",LEFT(B190&amp;"  ",2)&amp;RIGHT("   "&amp;C190,3)&amp;RIGHT("   "&amp;G190,3)&amp;RIGHT("   "&amp;H190,3)&amp;RIGHT("    "&amp;F190,4)&amp;" "&amp;LEFT(J190&amp;"                            ",25)&amp;" " &amp;I190)</f>
+        <v>S  16 74  0   0 SULFINYL SULFUR, C=S=O    $([SD2]([CD3])[OD1])</v>
       </c>
       <c r="L190">
-        <v>2020</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>53</v>
+        <v>153</v>
       </c>
       <c r="B191" t="s">
         <v>54</v>
@@ -11252,38 +11255,38 @@
         <v>16</v>
       </c>
       <c r="D191" t="s">
-        <v>55</v>
+        <v>316</v>
       </c>
       <c r="E191">
         <f>VLOOKUP(G191,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="G191" s="5">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="H191" s="5">
         <v>0</v>
       </c>
       <c r="I191" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="J191" t="s">
-        <v>176</v>
+        <v>317</v>
       </c>
       <c r="K191" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S  16 16  0   0 S DOUBLY BONDED TO C      $([SD1]=[#6D3])</v>
+        <f>IF(LEN(I191)&lt;2,"",LEFT(B191&amp;"  ",2)&amp;RIGHT("   "&amp;C191,3)&amp;RIGHT("   "&amp;G191,3)&amp;RIGHT("   "&amp;H191,3)&amp;RIGHT("    "&amp;F191,4)&amp;" "&amp;LEFT(J191&amp;"                            ",25)&amp;" " &amp;I191)</f>
+        <v>S  16 72  0  -6 THIOCARBOXYLATE S         $([SD1][CD3][SD1])</v>
       </c>
       <c r="L191">
-        <v>2030</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B192" t="s">
         <v>54</v>
@@ -11293,7 +11296,7 @@
         <v>16</v>
       </c>
       <c r="D192" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E192">
         <f>VLOOKUP(G192,props!B:J,3,FALSE)</f>
@@ -11309,22 +11312,22 @@
         <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>773</v>
+        <v>364</v>
       </c>
       <c r="J192" t="s">
-        <v>669</v>
+        <v>322</v>
       </c>
       <c r="K192" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S  16 72  0  -6 TERMINAL SULFUR ON C (P,S $([SD1][#15,#6,#16][OD1])</v>
+        <f>IF(LEN(I192)&lt;2,"",LEFT(B192&amp;"  ",2)&amp;RIGHT("   "&amp;C192,3)&amp;RIGHT("   "&amp;G192,3)&amp;RIGHT("   "&amp;H192,3)&amp;RIGHT("    "&amp;F192,4)&amp;" "&amp;LEFT(J192&amp;"                            ",25)&amp;" " &amp;I192)</f>
+        <v/>
       </c>
       <c r="L192">
-        <v>2040</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>155</v>
+        <v>53</v>
       </c>
       <c r="B193" t="s">
         <v>54</v>
@@ -11334,38 +11337,38 @@
         <v>16</v>
       </c>
       <c r="D193" t="s">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="E193">
         <f>VLOOKUP(G193,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F193">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="G193" s="5">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="H193" s="5">
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>776</v>
+        <v>666</v>
       </c>
       <c r="J193" t="s">
-        <v>774</v>
+        <v>176</v>
       </c>
       <c r="K193" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S  16 72  0 -12 TERMINAL SULFUR  on alken $([SD1][#6])</v>
+        <f>IF(LEN(I193)&lt;2,"",LEFT(B193&amp;"  ",2)&amp;RIGHT("   "&amp;C193,3)&amp;RIGHT("   "&amp;G193,3)&amp;RIGHT("   "&amp;H193,3)&amp;RIGHT("    "&amp;F193,4)&amp;" "&amp;LEFT(J193&amp;"                            ",25)&amp;" " &amp;I193)</f>
+        <v>S  16 16  0   0 S DOUBLY BONDED TO C      $([SD1]=[#6D3])</v>
       </c>
       <c r="L193">
-        <v>2040</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B194" t="s">
         <v>54</v>
@@ -11375,14 +11378,14 @@
         <v>16</v>
       </c>
       <c r="D194" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E194">
         <f>VLOOKUP(G194,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="G194" s="5">
         <v>72</v>
@@ -11391,104 +11394,104 @@
         <v>0</v>
       </c>
       <c r="I194" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="J194" t="s">
-        <v>319</v>
+        <v>669</v>
       </c>
       <c r="K194" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>S  16 72  0   0 TERMINAL SULFUR ON P      $([SD1][#15,#16])</v>
+        <f>IF(LEN(I194)&lt;2,"",LEFT(B194&amp;"  ",2)&amp;RIGHT("   "&amp;C194,3)&amp;RIGHT("   "&amp;G194,3)&amp;RIGHT("   "&amp;H194,3)&amp;RIGHT("    "&amp;F194,4)&amp;" "&amp;LEFT(J194&amp;"                            ",25)&amp;" " &amp;I194)</f>
+        <v>S  16 72  0  -6 TERMINAL SULFUR ON C (P,S $([SD1][#15,#6,#16][OD1])</v>
       </c>
       <c r="L194">
-        <v>2050</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="B195" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C195">
         <f>VLOOKUP(B195,elemno!A:B,2,FALSE)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D195" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="E195">
         <f>VLOOKUP(G195,props!B:J,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="F195">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="G195" s="5">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="H195" s="5">
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>613</v>
+        <v>776</v>
       </c>
       <c r="J195" t="s">
-        <v>172</v>
+        <v>774</v>
       </c>
       <c r="K195" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Cl 17 12  0   0 CHLORINE                  [ClD1]</v>
+        <f>IF(LEN(I195)&lt;2,"",LEFT(B195&amp;"  ",2)&amp;RIGHT("   "&amp;C195,3)&amp;RIGHT("   "&amp;G195,3)&amp;RIGHT("   "&amp;H195,3)&amp;RIGHT("    "&amp;F195,4)&amp;" "&amp;LEFT(J195&amp;"                            ",25)&amp;" " &amp;I195)</f>
+        <v>S  16 72  0 -12 TERMINAL SULFUR  on alken $([SD1][#6])</v>
       </c>
       <c r="L195">
-        <v>2070</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B196" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C196">
         <f>VLOOKUP(B196,elemno!A:B,2,FALSE)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D196" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="E196">
         <f>VLOOKUP(G196,props!B:J,3,FALSE)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F196">
         <v>0</v>
       </c>
       <c r="G196" s="5">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H196" s="5">
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>614</v>
+        <v>775</v>
       </c>
       <c r="J196" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="K196" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Cl 17 77  0   0 CHLORINE IN CLO4(-)       $([ClD4]([OD1])([OD1])([OD1])[OD1])</v>
+        <f>IF(LEN(I196)&lt;2,"",LEFT(B196&amp;"  ",2)&amp;RIGHT("   "&amp;C196,3)&amp;RIGHT("   "&amp;G196,3)&amp;RIGHT("   "&amp;H196,3)&amp;RIGHT("    "&amp;F196,4)&amp;" "&amp;LEFT(J196&amp;"                            ",25)&amp;" " &amp;I196)</f>
+        <v>S  16 72  0   0 TERMINAL SULFUR ON P      $([SD1][#15,#16])</v>
       </c>
       <c r="L196">
-        <v>2080</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>173</v>
+        <v>49</v>
       </c>
       <c r="B197" t="s">
         <v>63</v>
@@ -11498,202 +11501,202 @@
         <v>17</v>
       </c>
       <c r="D197" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E197">
         <f>VLOOKUP(G197,props!B:J,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="G197" s="5">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="H197" s="5">
         <v>0</v>
       </c>
       <c r="I197" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="J197" t="s">
-        <v>341</v>
+        <v>172</v>
       </c>
       <c r="K197" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Cl 17 90  0 -12 CHLORIDE ANION            [ClD0]</v>
+        <f>IF(LEN(I197)&lt;2,"",LEFT(B197&amp;"  ",2)&amp;RIGHT("   "&amp;C197,3)&amp;RIGHT("   "&amp;G197,3)&amp;RIGHT("   "&amp;H197,3)&amp;RIGHT("    "&amp;F197,4)&amp;" "&amp;LEFT(J197&amp;"                            ",25)&amp;" " &amp;I197)</f>
+        <v>Cl 17 12  0   0 CHLORINE                  [ClD1]</v>
       </c>
       <c r="L197">
-        <v>2090</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B198" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C198">
         <f>VLOOKUP(B198,elemno!A:B,2,FALSE)</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D198" t="s">
-        <v>78</v>
+        <v>329</v>
       </c>
       <c r="E198">
         <f>VLOOKUP(G198,props!B:J,3,FALSE)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F198">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G198" s="5">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="H198" s="5">
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="J198" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="K198" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>K  19 94  0  12 POTASSIUM CATION          [KD0]</v>
+        <f>IF(LEN(I198)&lt;2,"",LEFT(B198&amp;"  ",2)&amp;RIGHT("   "&amp;C198,3)&amp;RIGHT("   "&amp;G198,3)&amp;RIGHT("   "&amp;H198,3)&amp;RIGHT("    "&amp;F198,4)&amp;" "&amp;LEFT(J198&amp;"                            ",25)&amp;" " &amp;I198)</f>
+        <v>Cl 17 77  0   0 CHLORINE IN CLO4(-)       $([ClD4]([OD1])([OD1])([OD1])[OD1])</v>
       </c>
       <c r="L198">
-        <v>2100</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B199" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C199">
         <f>VLOOKUP(B199,elemno!A:B,2,FALSE)</f>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D199" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E199">
         <f>VLOOKUP(G199,props!B:J,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F199">
-        <v>24</v>
+        <v>-12</v>
       </c>
       <c r="G199" s="5">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="H199" s="5">
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="J199" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K199" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Ca 20 96  0  24 DIPOSITIVE CALCIUM CATION [CaD0]</v>
+        <f>IF(LEN(I199)&lt;2,"",LEFT(B199&amp;"  ",2)&amp;RIGHT("   "&amp;C199,3)&amp;RIGHT("   "&amp;G199,3)&amp;RIGHT("   "&amp;H199,3)&amp;RIGHT("    "&amp;F199,4)&amp;" "&amp;LEFT(J199&amp;"                            ",25)&amp;" " &amp;I199)</f>
+        <v>Cl 17 90  0 -12 CHLORIDE ANION            [ClD0]</v>
       </c>
       <c r="L199">
-        <v>2110</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="B200" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C200">
         <f>VLOOKUP(B200,elemno!A:B,2,FALSE)</f>
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D200" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E200">
         <f>VLOOKUP(G200,props!B:J,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F200">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G200" s="5">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H200" s="5">
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>396</v>
+        <v>617</v>
       </c>
       <c r="J200" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="K200" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Fe 26 87  0  24 IRON +2 CATION            [FeD0+2]</v>
+        <f>IF(LEN(I200)&lt;2,"",LEFT(B200&amp;"  ",2)&amp;RIGHT("   "&amp;C200,3)&amp;RIGHT("   "&amp;G200,3)&amp;RIGHT("   "&amp;H200,3)&amp;RIGHT("    "&amp;F200,4)&amp;" "&amp;LEFT(J200&amp;"                            ",25)&amp;" " &amp;I200)</f>
+        <v>K  19 94  0  12 POTASSIUM CATION          [KD0]</v>
       </c>
       <c r="L200">
-        <v>2120</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B201" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C201">
         <f>VLOOKUP(B201,elemno!A:B,2,FALSE)</f>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D201" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E201">
         <f>VLOOKUP(G201,props!B:J,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F201">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G201" s="5">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="H201" s="5">
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>397</v>
+        <v>611</v>
       </c>
       <c r="J201" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="K201" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Fe 26 88  0  36 IRON +3 CATION            [FeD0+3]</v>
+        <f>IF(LEN(I201)&lt;2,"",LEFT(B201&amp;"  ",2)&amp;RIGHT("   "&amp;C201,3)&amp;RIGHT("   "&amp;G201,3)&amp;RIGHT("   "&amp;H201,3)&amp;RIGHT("    "&amp;F201,4)&amp;" "&amp;LEFT(J201&amp;"                            ",25)&amp;" " &amp;I201)</f>
+        <v>Ca 20 96  0  24 DIPOSITIVE CALCIUM CATION [CaD0]</v>
       </c>
       <c r="L201">
-        <v>2130</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B202" t="s">
         <v>69</v>
@@ -11703,79 +11706,79 @@
         <v>26</v>
       </c>
       <c r="D202" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E202">
         <f>VLOOKUP(G202,props!B:J,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F202">
-        <v>-12</v>
+        <v>24</v>
       </c>
       <c r="G202" s="5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H202" s="5">
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>616</v>
+        <v>396</v>
       </c>
       <c r="J202" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K202" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Fe 26 89  0 -12 FLUORIDE ANION            [FD0]</v>
+        <f>IF(LEN(I202)&lt;2,"",LEFT(B202&amp;"  ",2)&amp;RIGHT("   "&amp;C202,3)&amp;RIGHT("   "&amp;G202,3)&amp;RIGHT("   "&amp;H202,3)&amp;RIGHT("    "&amp;F202,4)&amp;" "&amp;LEFT(J202&amp;"                            ",25)&amp;" " &amp;I202)</f>
+        <v>Fe 26 87  0  24 IRON +2 CATION            [FeD0+2]</v>
       </c>
       <c r="L202">
-        <v>2140</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B203" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C203">
         <f>VLOOKUP(B203,elemno!A:B,2,FALSE)</f>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D203" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="E203">
         <f>VLOOKUP(G203,props!B:J,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F203">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G203" s="5">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="H203" s="5">
         <v>0</v>
       </c>
       <c r="I203" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="J203" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="K203" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Cu 29 97  0  12 MONOPOSITIVE COPPER CATIO [CuD0+1]</v>
+        <f>IF(LEN(I203)&lt;2,"",LEFT(B203&amp;"  ",2)&amp;RIGHT("   "&amp;C203,3)&amp;RIGHT("   "&amp;G203,3)&amp;RIGHT("   "&amp;H203,3)&amp;RIGHT("    "&amp;F203,4)&amp;" "&amp;LEFT(J203&amp;"                            ",25)&amp;" " &amp;I203)</f>
+        <v>Fe 26 88  0  36 IRON +3 CATION            [FeD0+3]</v>
       </c>
       <c r="L203">
-        <v>2150</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B204" t="s">
         <v>85</v>
@@ -11785,48 +11788,48 @@
         <v>29</v>
       </c>
       <c r="D204" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E204">
         <f>VLOOKUP(G204,props!B:J,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F204">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G204" s="5">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H204" s="5">
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J204" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K204" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Cu 29 98  0  24 DIPOSITIVE COPPER CATION  [CuD0+2]</v>
+        <f>IF(LEN(I204)&lt;2,"",LEFT(B204&amp;"  ",2)&amp;RIGHT("   "&amp;C204,3)&amp;RIGHT("   "&amp;G204,3)&amp;RIGHT("   "&amp;H204,3)&amp;RIGHT("    "&amp;F204,4)&amp;" "&amp;LEFT(J204&amp;"                            ",25)&amp;" " &amp;I204)</f>
+        <v>Cu 29 97  0  12 MONOPOSITIVE COPPER CATIO [CuD0+1]</v>
       </c>
       <c r="L204">
-        <v>2160</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B205" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C205">
         <f>VLOOKUP(B205,elemno!A:B,2,FALSE)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D205" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E205">
         <f>VLOOKUP(G205,props!B:J,3,FALSE)</f>
@@ -11836,28 +11839,28 @@
         <v>24</v>
       </c>
       <c r="G205" s="5">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H205" s="5">
         <v>0</v>
       </c>
       <c r="I205" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J205" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K205" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Zn 30 95  0  24 DIPOSITIVE ZINC CATION    [ZnD0+2]</v>
+        <f>IF(LEN(I205)&lt;2,"",LEFT(B205&amp;"  ",2)&amp;RIGHT("   "&amp;C205,3)&amp;RIGHT("   "&amp;G205,3)&amp;RIGHT("   "&amp;H205,3)&amp;RIGHT("    "&amp;F205,4)&amp;" "&amp;LEFT(J205&amp;"                            ",25)&amp;" " &amp;I205)</f>
+        <v>Cu 29 98  0  24 DIPOSITIVE COPPER CATION  [CuD0+2]</v>
       </c>
       <c r="L205">
-        <v>2170</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B206" t="s">
         <v>81</v>
@@ -11867,14 +11870,14 @@
         <v>30</v>
       </c>
       <c r="D206" t="s">
-        <v>347</v>
+        <v>80</v>
       </c>
       <c r="E206">
         <f>VLOOKUP(G206,props!B:J,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F206">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G206" s="5">
         <v>95</v>
@@ -11883,63 +11886,63 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="J206" t="s">
         <v>346</v>
       </c>
       <c r="K206" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+        <f>IF(LEN(I206)&lt;2,"",LEFT(B206&amp;"  ",2)&amp;RIGHT("   "&amp;C206,3)&amp;RIGHT("   "&amp;G206,3)&amp;RIGHT("   "&amp;H206,3)&amp;RIGHT("    "&amp;F206,4)&amp;" "&amp;LEFT(J206&amp;"                            ",25)&amp;" " &amp;I206)</f>
+        <v>Zn 30 95  0  24 DIPOSITIVE ZINC CATION    [ZnD0+2]</v>
       </c>
       <c r="L206">
-        <v>2180</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="B207" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C207">
         <f>VLOOKUP(B207,elemno!A:B,2,FALSE)</f>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D207" t="s">
-        <v>64</v>
+        <v>347</v>
       </c>
       <c r="E207">
         <f>VLOOKUP(G207,props!B:J,3,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
       <c r="G207" s="5">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="H207" s="5">
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>610</v>
+        <v>364</v>
       </c>
       <c r="J207" t="s">
-        <v>173</v>
+        <v>346</v>
       </c>
       <c r="K207" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Br 35 13  0   0 BROMINE                   [BrD1]</v>
+        <f>IF(LEN(I207)&lt;2,"",LEFT(B207&amp;"  ",2)&amp;RIGHT("   "&amp;C207,3)&amp;RIGHT("   "&amp;G207,3)&amp;RIGHT("   "&amp;H207,3)&amp;RIGHT("    "&amp;F207,4)&amp;" "&amp;LEFT(J207&amp;"                            ",25)&amp;" " &amp;I207)</f>
+        <v/>
       </c>
       <c r="L207">
-        <v>2190</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="B208" t="s">
         <v>65</v>
@@ -11949,181 +11952,219 @@
         <v>35</v>
       </c>
       <c r="D208" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E208">
         <f>VLOOKUP(G208,props!B:J,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="G208" s="5">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="H208" s="5">
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="J208" t="s">
-        <v>342</v>
+        <v>173</v>
       </c>
       <c r="K208" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v>Br 35 91  0 -12 BROMIDE ANION             [BrD0]</v>
+        <f>IF(LEN(I208)&lt;2,"",LEFT(B208&amp;"  ",2)&amp;RIGHT("   "&amp;C208,3)&amp;RIGHT("   "&amp;G208,3)&amp;RIGHT("   "&amp;H208,3)&amp;RIGHT("    "&amp;F208,4)&amp;" "&amp;LEFT(J208&amp;"                            ",25)&amp;" " &amp;I208)</f>
+        <v>Br 35 13  0   0 BROMINE                   [BrD1]</v>
       </c>
       <c r="L208">
-        <v>2200</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="B209" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C209">
         <f>VLOOKUP(B209,elemno!A:B,2,FALSE)</f>
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D209" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E209">
         <f>VLOOKUP(G209,props!B:J,3,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="G209" s="5">
+        <v>91</v>
+      </c>
+      <c r="H209" s="5">
+        <v>0</v>
+      </c>
+      <c r="I209" t="s">
+        <v>609</v>
+      </c>
+      <c r="J209" t="s">
+        <v>342</v>
+      </c>
+      <c r="K209" s="7" t="str">
+        <f>IF(LEN(I209)&lt;2,"",LEFT(B209&amp;"  ",2)&amp;RIGHT("   "&amp;C209,3)&amp;RIGHT("   "&amp;G209,3)&amp;RIGHT("   "&amp;H209,3)&amp;RIGHT("    "&amp;F209,4)&amp;" "&amp;LEFT(J209&amp;"                            ",25)&amp;" " &amp;I209)</f>
+        <v>Br 35 91  0 -12 BROMIDE ANION             [BrD0]</v>
+      </c>
+      <c r="L209">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>51</v>
+      </c>
+      <c r="B210" t="s">
+        <v>66</v>
+      </c>
+      <c r="C210">
+        <f>VLOOKUP(B210,elemno!A:B,2,FALSE)</f>
+        <v>53</v>
+      </c>
+      <c r="D210" t="s">
+        <v>66</v>
+      </c>
+      <c r="E210">
+        <f>VLOOKUP(G210,props!B:J,3,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210" s="5">
         <v>14</v>
       </c>
-      <c r="H209" s="5">
-        <v>0</v>
-      </c>
-      <c r="I209" t="s">
+      <c r="H210" s="5">
+        <v>0</v>
+      </c>
+      <c r="I210" t="s">
         <v>386</v>
       </c>
-      <c r="J209" t="s">
+      <c r="J210" t="s">
         <v>174</v>
       </c>
-      <c r="K209" s="7" t="str">
-        <f t="shared" si="3"/>
+      <c r="K210" s="7" t="str">
+        <f>IF(LEN(I210)&lt;2,"",LEFT(B210&amp;"  ",2)&amp;RIGHT("   "&amp;C210,3)&amp;RIGHT("   "&amp;G210,3)&amp;RIGHT("   "&amp;H210,3)&amp;RIGHT("    "&amp;F210,4)&amp;" "&amp;LEFT(J210&amp;"                            ",25)&amp;" " &amp;I210)</f>
         <v>I  53 14  0   0 IODINE                    [ID1]</v>
       </c>
-      <c r="L209">
+      <c r="L210">
         <v>2210</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L210">
-        <v>360</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L211">
-        <v>380</v>
+        <v>360</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L212">
-        <v>740</v>
+        <v>380</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L213">
-        <v>1240</v>
+        <v>740</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L214">
-        <v>1250</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L215">
-        <v>1270</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L216">
-        <v>1440</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L217">
-        <v>1450</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L218">
-        <v>1460</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L219">
-        <v>1480</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L220">
-        <v>1730</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L221">
-        <v>1780</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L222">
-        <v>1860</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L223">
-        <v>1920</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="L224">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="225" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L225">
         <v>1960</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L225">
+    <row r="226" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L226">
         <v>2000</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L226">
+    <row r="227" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="L227">
         <v>2060</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K231" s="7" t="str">
-        <f>IF(LEN(I231)&lt;2,"",LEFT(B231&amp;"  ",2)&amp;RIGHT("   "&amp;C231,3)&amp;RIGHT("   "&amp;G231,3)&amp;RIGHT("       "&amp;F231,7)&amp;" "&amp;LEFT(J231&amp;"                            ",25)&amp;" " &amp;I231)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K232" s="7" t="str">
         <f>IF(LEN(I232)&lt;2,"",LEFT(B232&amp;"  ",2)&amp;RIGHT("   "&amp;C232,3)&amp;RIGHT("   "&amp;G232,3)&amp;RIGHT("       "&amp;F232,7)&amp;" "&amp;LEFT(J232&amp;"                            ",25)&amp;" " &amp;I232)</f>
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="233" spans="11:12" x14ac:dyDescent="0.25">
       <c r="K233" s="7" t="str">
         <f>IF(LEN(I233)&lt;2,"",LEFT(B233&amp;"  ",2)&amp;RIGHT("   "&amp;C233,3)&amp;RIGHT("   "&amp;G233,3)&amp;RIGHT("       "&amp;F233,7)&amp;" "&amp;LEFT(J233&amp;"                            ",25)&amp;" " &amp;I233)</f>
         <v/>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
+    <row r="234" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K234" s="7" t="str">
+        <f>IF(LEN(I234)&lt;2,"",LEFT(B234&amp;"  ",2)&amp;RIGHT("   "&amp;C234,3)&amp;RIGHT("   "&amp;G234,3)&amp;RIGHT("       "&amp;F234,7)&amp;" "&amp;LEFT(J234&amp;"                            ",25)&amp;" " &amp;I234)</f>
+        <v/>
+      </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
@@ -12179,12 +12220,15 @@
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
     </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J235"/>
-  <sortState ref="A2:M257">
-    <sortCondition ref="C2:C257"/>
-    <sortCondition ref="L2:L257"/>
-    <sortCondition ref="A2:A257"/>
+  <autoFilter ref="A1:J236"/>
+  <sortState ref="A2:XFD259">
+    <sortCondition ref="C2:C259"/>
+    <sortCondition ref="L2:L259"/>
+    <sortCondition ref="A2:A259"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12241,67 +12285,67 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>

--- a/Jmol/src/org/jmol/minimize/forcefield/mmff/docs/MMFF94-smarts.xlsx
+++ b/Jmol/src/org/jmol/minimize/forcefield/mmff/docs/MMFF94-smarts.xlsx
@@ -16,7 +16,7 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -1629,9 +1629,6 @@
     <t>NEG N IN DIAZOLE</t>
   </si>
   <si>
-    <t>$([nD2r500][nD2r500]ccc)</t>
-  </si>
-  <si>
     <t>$([ND3v3][#7D2v3]=[#7D2v3])</t>
   </si>
   <si>
@@ -1647,9 +1644,6 @@
     <t>N, SULFONAMIDES (S(O)2-N=S)</t>
   </si>
   <si>
-    <t>$([nD2r500][sD2])</t>
-  </si>
-  <si>
     <t>$([nD2r500]:a:[sD2])</t>
   </si>
   <si>
@@ -1801,6 +1795,12 @@
   </si>
   <si>
     <t>#AtSym ElemNo mmType HType formalCharge*12 val Desc Smiles</t>
+  </si>
+  <si>
+    <t>$([nD2r500]:[sD2])</t>
+  </si>
+  <si>
+    <t>$([nD2r500]:[nD2r500]:c:c:c)</t>
   </si>
 </sst>
 </file>
@@ -2483,7 +2483,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" showAll="0">
@@ -2874,10 +2874,10 @@
   <dimension ref="A1:Q259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="J86" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K97" sqref="K97"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2916,19 +2916,19 @@
         <v>380</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>378</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>357</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>358</v>
@@ -2937,7 +2937,7 @@
         <v>89</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>374</v>
@@ -5460,10 +5460,10 @@
         <v>5</v>
       </c>
       <c r="M60" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N60" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="O60" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5505,10 +5505,10 @@
         <v>5</v>
       </c>
       <c r="M61" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N61" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="O61" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5550,10 +5550,10 @@
         <v>5</v>
       </c>
       <c r="M62" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N62" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="O62" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5595,10 +5595,10 @@
         <v>5</v>
       </c>
       <c r="M63" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="N63" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="O63" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5640,10 +5640,10 @@
         <v>5</v>
       </c>
       <c r="M64" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="N64" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="O64" s="6" t="str">
         <f t="shared" si="1"/>
@@ -5685,7 +5685,7 @@
         <v>5</v>
       </c>
       <c r="M65" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="N65" t="s">
         <v>310</v>
@@ -5730,7 +5730,7 @@
         <v>5</v>
       </c>
       <c r="M66" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="N66" t="s">
         <v>311</v>
@@ -6272,10 +6272,10 @@
         <v>28</v>
       </c>
       <c r="M78" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="N78" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="N78" s="7" t="s">
-        <v>540</v>
       </c>
       <c r="O78" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6459,7 +6459,7 @@
         <v>0</v>
       </c>
       <c r="M82" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N82" t="s">
         <v>308</v>
@@ -6504,10 +6504,10 @@
         <v>0</v>
       </c>
       <c r="M83" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="N83" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="O83" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6597,14 +6597,14 @@
         <v>0</v>
       </c>
       <c r="M85" t="s">
+        <v>591</v>
+      </c>
+      <c r="N85" t="s">
         <v>541</v>
-      </c>
-      <c r="N85" t="s">
-        <v>543</v>
       </c>
       <c r="O85" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>N   7 65  0   0  3 ALPHA AROM 5-RING N (thio $([nD2r500][sD2])</v>
+        <v>N   7 65  0   0  3 ALPHA AROM 5-RING N (thio $([nD2r500]:[sD2])</v>
       </c>
       <c r="P85">
         <v>860</v>
@@ -6643,10 +6643,10 @@
         <v>0</v>
       </c>
       <c r="M86" t="s">
+        <v>540</v>
+      </c>
+      <c r="N86" t="s">
         <v>542</v>
-      </c>
-      <c r="N86" t="s">
-        <v>544</v>
       </c>
       <c r="O86" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6688,10 +6688,10 @@
         <v>0</v>
       </c>
       <c r="M87" t="s">
+        <v>545</v>
+      </c>
+      <c r="N87" t="s">
         <v>547</v>
-      </c>
-      <c r="N87" t="s">
-        <v>549</v>
       </c>
       <c r="O87" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6733,10 +6733,10 @@
         <v>0</v>
       </c>
       <c r="M88" t="s">
+        <v>546</v>
+      </c>
+      <c r="N88" t="s">
         <v>548</v>
-      </c>
-      <c r="N88" t="s">
-        <v>550</v>
       </c>
       <c r="O88" s="6" t="str">
         <f t="shared" si="1"/>
@@ -6778,7 +6778,7 @@
         <v>0</v>
       </c>
       <c r="M89" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="N89" t="s">
         <v>312</v>
@@ -6823,7 +6823,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="N90" t="s">
         <v>428</v>
@@ -6961,14 +6961,14 @@
         <v>0</v>
       </c>
       <c r="M93" t="s">
-        <v>535</v>
+        <v>592</v>
       </c>
       <c r="N93" t="s">
         <v>534</v>
       </c>
       <c r="O93" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>N   7 76  0  -6  2 NEG N IN DIAZOLE          $([nD2r500][nD2r500]ccc)</v>
+        <v>N   7 76  0  -6  2 NEG N IN DIAZOLE          $([nD2r500]:[nD2r500]:c:c:c)</v>
       </c>
       <c r="P93">
         <v>940</v>
@@ -7549,7 +7549,7 @@
         <v>28</v>
       </c>
       <c r="M106" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N106" t="s">
         <v>166</v>
@@ -7594,7 +7594,7 @@
         <v>28</v>
       </c>
       <c r="M107" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N107" t="s">
         <v>168</v>
@@ -7684,7 +7684,7 @@
         <v>28</v>
       </c>
       <c r="M109" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N109" t="s">
         <v>170</v>
@@ -8050,7 +8050,7 @@
         <v>36</v>
       </c>
       <c r="M117" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="N117" t="s">
         <v>300</v>
@@ -8095,7 +8095,7 @@
         <v>36</v>
       </c>
       <c r="M118" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N118" t="s">
         <v>300</v>
@@ -8545,10 +8545,10 @@
         <v>24</v>
       </c>
       <c r="M128" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="N128" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O128" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8590,10 +8590,10 @@
         <v>21</v>
       </c>
       <c r="M129" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N129" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="O129" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8635,10 +8635,10 @@
         <v>29</v>
       </c>
       <c r="M130" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="N130" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O130" s="6" t="str">
         <f t="shared" si="2"/>
@@ -8680,7 +8680,7 @@
         <v>29</v>
       </c>
       <c r="M131" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="N131" t="s">
         <v>130</v>
@@ -8725,7 +8725,7 @@
         <v>33</v>
       </c>
       <c r="M132" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="N132" t="s">
         <v>132</v>
@@ -8905,7 +8905,7 @@
         <v>24</v>
       </c>
       <c r="M136" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N136" t="s">
         <v>139</v>
@@ -9085,7 +9085,7 @@
         <v>31</v>
       </c>
       <c r="M140" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="N140" t="s">
         <v>126</v>
@@ -9220,7 +9220,7 @@
         <v>52</v>
       </c>
       <c r="M143" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N143" t="s">
         <v>292</v>
@@ -9265,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="M144" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="N144" t="s">
         <v>467</v>
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="M151" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N151" t="s">
         <v>407</v>
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="M152" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N152" t="s">
         <v>246</v>
@@ -9760,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="M155" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="N155" t="s">
         <v>425</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="M156" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="N156" t="s">
         <v>424</v>
@@ -10258,7 +10258,7 @@
         <v>450</v>
       </c>
       <c r="N166" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O166" s="6" t="str">
         <f t="shared" si="2"/>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="M194" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="N194" t="s">
         <v>461</v>
@@ -11560,10 +11560,10 @@
         <v>0</v>
       </c>
       <c r="M195" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N195" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="O195" s="6" t="str">
         <f t="shared" si="3"/>
@@ -11605,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="M196" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="N196" t="s">
         <v>319</v>
@@ -14672,7 +14672,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <f>"case "&amp;B75&amp;":"</f>
+        <f t="shared" ref="A75:A85" si="0">"case "&amp;B75&amp;":"</f>
         <v>case 37:</v>
       </c>
       <c r="B75">
@@ -14705,7 +14705,7 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <f>"case "&amp;B76&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case 41:</v>
       </c>
       <c r="B76">
@@ -14738,7 +14738,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <f>"case "&amp;B77&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case 45:</v>
       </c>
       <c r="B77">
@@ -14771,7 +14771,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <f>"case "&amp;B78&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case 53:</v>
       </c>
       <c r="B78">
@@ -14804,7 +14804,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <f>"case "&amp;B79&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case 54:</v>
       </c>
       <c r="B79">
@@ -14837,7 +14837,7 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
-        <f>"case "&amp;B80&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case 57:</v>
       </c>
       <c r="B80">
@@ -14870,7 +14870,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
-        <f>"case "&amp;B81&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case 58:</v>
       </c>
       <c r="B81">
@@ -14903,7 +14903,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
-        <f>"case "&amp;B82&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case 61:</v>
       </c>
       <c r="B82">
@@ -14936,7 +14936,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
-        <f>"case "&amp;B83&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case 63:</v>
       </c>
       <c r="B83">
@@ -14969,7 +14969,7 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
-        <f>"case "&amp;B84&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case 64:</v>
       </c>
       <c r="B84">
@@ -15002,7 +15002,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
-        <f>"case "&amp;B85&amp;":"</f>
+        <f t="shared" si="0"/>
         <v>case 67:</v>
       </c>
       <c r="B85">
@@ -15159,7 +15159,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
-        <f>"case "&amp;B90&amp;":"</f>
+        <f t="shared" ref="A90:A96" si="1">"case "&amp;B90&amp;":"</f>
         <v>case 78:</v>
       </c>
       <c r="B90">
@@ -15192,7 +15192,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
-        <f>"case "&amp;B91&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case 80:</v>
       </c>
       <c r="B91">
@@ -15225,7 +15225,7 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
-        <f>"case "&amp;B92&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case 81:</v>
       </c>
       <c r="B92">
@@ -15258,7 +15258,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
-        <f>"case "&amp;B93&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case 82:</v>
       </c>
       <c r="B93">
@@ -15291,7 +15291,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
-        <f>"case "&amp;B94&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case 32:</v>
       </c>
       <c r="B94">
@@ -15324,7 +15324,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
-        <f>"case "&amp;B95&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case 55:</v>
       </c>
       <c r="B95">
@@ -15357,7 +15357,7 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
-        <f>"case "&amp;B96&amp;":"</f>
+        <f t="shared" si="1"/>
         <v>case 56:</v>
       </c>
       <c r="B96">
